--- a/data/HealthyHarborWaterWheelTotals2018-7-28.xlsx
+++ b/data/HealthyHarborWaterWheelTotals2018-7-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caseywpb/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonbrock/Desktop/2019_fall/p8105_data_science_i/git/p8105_hw2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6360508-7295-2740-A7CE-71F64799C815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D849E21-BE7A-3645-AE77-F32550A2311F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="27580" windowHeight="19220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="27580" windowHeight="16800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mr. Trash Wheel" sheetId="3" r:id="rId1"/>
@@ -25,10 +25,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mr. Trash Wheel'!$A$1:$O$294</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -297,12 +303,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -736,7 +748,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -961,9 +973,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,18 +1006,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,17 +1024,71 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="381">
@@ -1881,20 +1932,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="145" customHeight="1">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:15" s="50" customFormat="1">
       <c r="A2" s="26" t="s">
@@ -2300,45 +2351,45 @@
         <v>33</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="87"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="22">
-        <f>SUBTOTAL(9,E3:E10)</f>
+        <f t="shared" ref="E11:N11" si="0">SUBTOTAL(9,E3:E10)</f>
         <v>25.98</v>
       </c>
       <c r="F11" s="18">
-        <f>SUBTOTAL(9,F3:F10)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="G11" s="28">
-        <f>SUBTOTAL(9,G3:G10)</f>
+        <f t="shared" si="0"/>
         <v>14300</v>
       </c>
       <c r="H11" s="28">
-        <f>SUBTOTAL(9,H3:H10)</f>
+        <f t="shared" si="0"/>
         <v>17090</v>
       </c>
       <c r="I11" s="28">
-        <f>SUBTOTAL(9,I3:I10)</f>
+        <f t="shared" si="0"/>
         <v>800000</v>
       </c>
       <c r="J11" s="28">
-        <f>SUBTOTAL(9,J3:J10)</f>
+        <f t="shared" si="0"/>
         <v>424</v>
       </c>
       <c r="K11" s="28">
-        <f>SUBTOTAL(9,K3:K10)</f>
+        <f t="shared" si="0"/>
         <v>6064</v>
       </c>
       <c r="L11" s="28">
-        <f>SUBTOTAL(9,L3:L10)</f>
+        <f t="shared" si="0"/>
         <v>11643</v>
       </c>
       <c r="M11" s="18">
-        <f>SUBTOTAL(9,M3:M10)</f>
+        <f t="shared" si="0"/>
         <v>46.4</v>
       </c>
       <c r="N11" s="18">
-        <f>SUBTOTAL(9,N3:N10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11" s="49"/>
@@ -2754,45 +2805,45 @@
         <v>34</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="83">
-        <f>SUBTOTAL(9,E12:E20)</f>
+      <c r="D21" s="86"/>
+      <c r="E21" s="82">
+        <f t="shared" ref="E21:N21" si="1">SUBTOTAL(9,E12:E20)</f>
         <v>32</v>
       </c>
-      <c r="F21" s="78">
-        <f>SUBTOTAL(9,F12:F20)</f>
+      <c r="F21" s="77">
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="G21" s="28">
-        <f>SUBTOTAL(9,G12:G20)</f>
+        <f t="shared" si="1"/>
         <v>10920</v>
       </c>
       <c r="H21" s="28">
-        <f>SUBTOTAL(9,H12:H20)</f>
+        <f t="shared" si="1"/>
         <v>13019</v>
       </c>
       <c r="I21" s="28">
-        <f>SUBTOTAL(9,I12:I20)</f>
+        <f t="shared" si="1"/>
         <v>972000</v>
       </c>
       <c r="J21" s="28">
-        <f>SUBTOTAL(9,J12:J20)</f>
+        <f t="shared" si="1"/>
         <v>494</v>
       </c>
       <c r="K21" s="28">
-        <f>SUBTOTAL(9,K12:K20)</f>
+        <f t="shared" si="1"/>
         <v>4744</v>
       </c>
       <c r="L21" s="28">
-        <f>SUBTOTAL(9,L12:L20)</f>
+        <f t="shared" si="1"/>
         <v>8602</v>
       </c>
       <c r="M21" s="18">
-        <f>SUBTOTAL(9,M12:M20)</f>
+        <f t="shared" si="1"/>
         <v>55.6</v>
       </c>
       <c r="N21" s="18">
-        <f>SUBTOTAL(9,N12:N20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O21" s="49"/>
@@ -3118,45 +3169,45 @@
         <v>35</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="83">
-        <f>SUBTOTAL(9,E22:E28)</f>
+      <c r="D29" s="86"/>
+      <c r="E29" s="82">
+        <f t="shared" ref="E29:N29" si="2">SUBTOTAL(9,E22:E28)</f>
         <v>21.200000000000003</v>
       </c>
-      <c r="F29" s="78">
-        <f>SUBTOTAL(9,F22:F28)</f>
+      <c r="F29" s="77">
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="G29" s="28">
-        <f>SUBTOTAL(9,G22:G28)</f>
+        <f t="shared" si="2"/>
         <v>19130</v>
       </c>
       <c r="H29" s="28">
-        <f>SUBTOTAL(9,H22:H28)</f>
+        <f t="shared" si="2"/>
         <v>22310</v>
       </c>
       <c r="I29" s="28">
-        <f>SUBTOTAL(9,I22:I28)</f>
+        <f t="shared" si="2"/>
         <v>757000</v>
       </c>
       <c r="J29" s="28">
-        <f>SUBTOTAL(9,J22:J28)</f>
+        <f t="shared" si="2"/>
         <v>335</v>
       </c>
       <c r="K29" s="28">
-        <f>SUBTOTAL(9,K22:K28)</f>
+        <f t="shared" si="2"/>
         <v>8744</v>
       </c>
       <c r="L29" s="28">
-        <f>SUBTOTAL(9,L22:L28)</f>
+        <f t="shared" si="2"/>
         <v>15943</v>
       </c>
       <c r="M29" s="18">
-        <f>SUBTOTAL(9,M22:M28)</f>
+        <f t="shared" si="2"/>
         <v>42.400000000000006</v>
       </c>
       <c r="N29" s="18">
-        <f>SUBTOTAL(9,N22:N28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O29" s="49"/>
@@ -3387,50 +3438,50 @@
       <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A35" s="77"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="83">
-        <f>SUBTOTAL(9,E30:E34)</f>
+      <c r="E35" s="82">
+        <f t="shared" ref="E35:N35" si="3">SUBTOTAL(9,E30:E34)</f>
         <v>18.169999999999998</v>
       </c>
-      <c r="F35" s="78">
-        <f>SUBTOTAL(9,F30:F34)</f>
+      <c r="F35" s="77">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="G35" s="78">
-        <f>SUBTOTAL(9,G30:G34)</f>
+      <c r="G35" s="77">
+        <f t="shared" si="3"/>
         <v>9410</v>
       </c>
-      <c r="H35" s="78">
-        <f>SUBTOTAL(9,H30:H34)</f>
+      <c r="H35" s="77">
+        <f t="shared" si="3"/>
         <v>11010</v>
       </c>
-      <c r="I35" s="78">
-        <f>SUBTOTAL(9,I30:I34)</f>
+      <c r="I35" s="77">
+        <f t="shared" si="3"/>
         <v>535000</v>
       </c>
-      <c r="J35" s="78">
-        <f>SUBTOTAL(9,J30:J34)</f>
+      <c r="J35" s="77">
+        <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="K35" s="78">
-        <f>SUBTOTAL(9,K30:K34)</f>
+      <c r="K35" s="77">
+        <f t="shared" si="3"/>
         <v>3838</v>
       </c>
-      <c r="L35" s="78">
-        <f>SUBTOTAL(9,L30:L34)</f>
+      <c r="L35" s="77">
+        <f t="shared" si="3"/>
         <v>8731</v>
       </c>
       <c r="M35" s="18">
-        <f>SUBTOTAL(9,M30:M34)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="N35" s="18">
-        <f>SUBTOTAL(9,N30:N34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O35" s="49"/>
@@ -3571,50 +3622,50 @@
       <c r="O38" s="51"/>
     </row>
     <row r="39" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="76" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="83">
-        <f>SUBTOTAL(9,E36:E38)</f>
+      <c r="E39" s="82">
+        <f t="shared" ref="E39:N39" si="4">SUBTOTAL(9,E36:E38)</f>
         <v>8.14</v>
       </c>
-      <c r="F39" s="78">
-        <f>SUBTOTAL(9,F36:F38)</f>
+      <c r="F39" s="77">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="G39" s="78">
-        <f>SUBTOTAL(9,G36:G38)</f>
+      <c r="G39" s="77">
+        <f t="shared" si="4"/>
         <v>7590</v>
       </c>
-      <c r="H39" s="78">
-        <f>SUBTOTAL(9,H36:H38)</f>
+      <c r="H39" s="77">
+        <f t="shared" si="4"/>
         <v>7380</v>
       </c>
-      <c r="I39" s="78">
-        <f>SUBTOTAL(9,I36:I38)</f>
+      <c r="I39" s="77">
+        <f t="shared" si="4"/>
         <v>440000</v>
       </c>
-      <c r="J39" s="78">
-        <f>SUBTOTAL(9,J36:J38)</f>
+      <c r="J39" s="77">
+        <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="K39" s="78">
-        <f>SUBTOTAL(9,K36:K38)</f>
+      <c r="K39" s="77">
+        <f t="shared" si="4"/>
         <v>3500</v>
       </c>
-      <c r="L39" s="78">
-        <f>SUBTOTAL(9,L36:L38)</f>
+      <c r="L39" s="77">
+        <f t="shared" si="4"/>
         <v>5100</v>
       </c>
       <c r="M39" s="18">
-        <f>SUBTOTAL(9,M36:M38)</f>
+        <f t="shared" si="4"/>
         <v>16.399999999999999</v>
       </c>
       <c r="N39" s="18">
-        <f>SUBTOTAL(9,N36:N38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O39" s="49"/>
@@ -3845,50 +3896,50 @@
       <c r="O44" s="51"/>
     </row>
     <row r="45" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="83">
-        <f>SUBTOTAL(9,E40:E44)</f>
+      <c r="E45" s="82">
+        <f t="shared" ref="E45:N45" si="5">SUBTOTAL(9,E40:E44)</f>
         <v>14.72</v>
       </c>
-      <c r="F45" s="78">
-        <f>SUBTOTAL(9,F40:F44)</f>
+      <c r="F45" s="77">
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="G45" s="78">
-        <f>SUBTOTAL(9,G40:G44)</f>
+      <c r="G45" s="77">
+        <f t="shared" si="5"/>
         <v>13990</v>
       </c>
-      <c r="H45" s="78">
-        <f>SUBTOTAL(9,H40:H44)</f>
+      <c r="H45" s="77">
+        <f t="shared" si="5"/>
         <v>15620</v>
       </c>
-      <c r="I45" s="78">
-        <f>SUBTOTAL(9,I40:I44)</f>
+      <c r="I45" s="77">
+        <f t="shared" si="5"/>
         <v>417000</v>
       </c>
-      <c r="J45" s="78">
-        <f>SUBTOTAL(9,J40:J44)</f>
+      <c r="J45" s="77">
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
-      <c r="K45" s="78">
-        <f>SUBTOTAL(9,K40:K44)</f>
+      <c r="K45" s="77">
+        <f t="shared" si="5"/>
         <v>5890</v>
       </c>
-      <c r="L45" s="78">
-        <f>SUBTOTAL(9,L40:L44)</f>
+      <c r="L45" s="77">
+        <f t="shared" si="5"/>
         <v>8720</v>
       </c>
       <c r="M45" s="18">
-        <f>SUBTOTAL(9,M40:M44)</f>
+        <f t="shared" si="5"/>
         <v>30.799999999999997</v>
       </c>
       <c r="N45" s="18">
-        <f>SUBTOTAL(9,N40:N44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O45" s="49"/>
@@ -4070,50 +4121,50 @@
       </c>
     </row>
     <row r="50" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="77"/>
+      <c r="B50" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="83">
-        <f>SUBTOTAL(9,E46:E49)</f>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="82">
+        <f t="shared" ref="E50:N50" si="6">SUBTOTAL(9,E46:E49)</f>
         <v>12.669999999999998</v>
       </c>
-      <c r="F50" s="78">
-        <f>SUBTOTAL(9,F46:F49)</f>
+      <c r="F50" s="77">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="G50" s="18">
-        <f>SUBTOTAL(9,G46:G49)</f>
+        <f t="shared" si="6"/>
         <v>4690</v>
       </c>
-      <c r="H50" s="78">
-        <f>SUBTOTAL(9,H46:H49)</f>
+      <c r="H50" s="77">
+        <f t="shared" si="6"/>
         <v>10220</v>
       </c>
-      <c r="I50" s="78">
-        <f>SUBTOTAL(9,I46:I49)</f>
+      <c r="I50" s="77">
+        <f t="shared" si="6"/>
         <v>155000</v>
       </c>
-      <c r="J50" s="78">
-        <f>SUBTOTAL(9,J46:J49)</f>
+      <c r="J50" s="77">
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="K50" s="78">
-        <f>SUBTOTAL(9,K46:K49)</f>
+      <c r="K50" s="77">
+        <f t="shared" si="6"/>
         <v>3380</v>
       </c>
-      <c r="L50" s="78">
-        <f>SUBTOTAL(9,L46:L49)</f>
+      <c r="L50" s="77">
+        <f t="shared" si="6"/>
         <v>7670</v>
       </c>
       <c r="M50" s="18">
-        <f>SUBTOTAL(9,M46:M49)</f>
+        <f t="shared" si="6"/>
         <v>25.2</v>
       </c>
       <c r="N50" s="18">
-        <f>SUBTOTAL(9,N46:N49)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="49"/>
@@ -4251,50 +4302,50 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78" t="s">
+      <c r="A54" s="77"/>
+      <c r="B54" s="77" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="17"/>
       <c r="E54" s="22">
-        <f>SUBTOTAL(9,E51:E53)</f>
+        <f t="shared" ref="E54:N54" si="7">SUBTOTAL(9,E51:E53)</f>
         <v>8.4700000000000006</v>
       </c>
       <c r="F54" s="18">
-        <f>SUBTOTAL(9,F51:F53)</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="G54" s="18">
-        <f>SUBTOTAL(9,G51:G53)</f>
+        <f t="shared" si="7"/>
         <v>2560</v>
       </c>
       <c r="H54" s="18">
-        <f>SUBTOTAL(9,H51:H53)</f>
+        <f t="shared" si="7"/>
         <v>6260</v>
       </c>
       <c r="I54" s="18">
-        <f>SUBTOTAL(9,I51:I53)</f>
+        <f t="shared" si="7"/>
         <v>86000</v>
       </c>
       <c r="J54" s="18">
-        <f>SUBTOTAL(9,J51:J53)</f>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K54" s="18">
-        <f>SUBTOTAL(9,K51:K53)</f>
+        <f t="shared" si="7"/>
         <v>2570</v>
       </c>
       <c r="L54" s="18">
-        <f>SUBTOTAL(9,L51:L53)</f>
+        <f t="shared" si="7"/>
         <v>4440</v>
       </c>
       <c r="M54" s="18">
-        <f>SUBTOTAL(9,M51:M53)</f>
+        <f t="shared" si="7"/>
         <v>18.8</v>
       </c>
       <c r="N54" s="18">
-        <f>SUBTOTAL(9,N51:N53)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O54" s="49"/>
@@ -4433,49 +4484,49 @@
     </row>
     <row r="58" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A58" s="16"/>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="85"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="17"/>
       <c r="E58" s="22">
-        <f>SUBTOTAL(9,E55:E57)</f>
+        <f t="shared" ref="E58:N58" si="8">SUBTOTAL(9,E55:E57)</f>
         <v>7.01</v>
       </c>
       <c r="F58" s="18">
-        <f>SUBTOTAL(9,F55:F57)</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="G58" s="18">
-        <f>SUBTOTAL(9,G55:G57)</f>
+        <f t="shared" si="8"/>
         <v>4070</v>
       </c>
       <c r="H58" s="18">
-        <f>SUBTOTAL(9,H55:H57)</f>
+        <f t="shared" si="8"/>
         <v>7300</v>
       </c>
       <c r="I58" s="18">
-        <f>SUBTOTAL(9,I55:I57)</f>
+        <f t="shared" si="8"/>
         <v>92000</v>
       </c>
       <c r="J58" s="18">
-        <f>SUBTOTAL(9,J55:J57)</f>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="K58" s="18">
-        <f>SUBTOTAL(9,K55:K57)</f>
+        <f t="shared" si="8"/>
         <v>1930</v>
       </c>
       <c r="L58" s="18">
-        <f>SUBTOTAL(9,L55:L57)</f>
+        <f t="shared" si="8"/>
         <v>4530</v>
       </c>
       <c r="M58" s="18">
-        <f>SUBTOTAL(9,M55:M57)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="N58" s="18">
-        <f>SUBTOTAL(9,N55:N57)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O58" s="49"/>
@@ -4521,55 +4572,55 @@
         <v>3</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" ref="N59:N69" si="0">SUM((E59*500)/30)</f>
+        <f t="shared" ref="N59:N69" si="9">SUM((E59*500)/30)</f>
         <v>42.333333333333336</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A60" s="16"/>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="85"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="17"/>
       <c r="E60" s="22">
-        <f>SUBTOTAL(9,E59:E59)</f>
+        <f t="shared" ref="E60:N60" si="10">SUBTOTAL(9,E59:E59)</f>
         <v>2.54</v>
       </c>
       <c r="F60" s="18">
-        <f>SUBTOTAL(9,F59:F59)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="G60" s="18">
-        <f>SUBTOTAL(9,G59:G59)</f>
+        <f t="shared" si="10"/>
         <v>1740</v>
       </c>
       <c r="H60" s="18">
-        <f>SUBTOTAL(9,H59:H59)</f>
+        <f t="shared" si="10"/>
         <v>2250</v>
       </c>
       <c r="I60" s="18">
-        <f>SUBTOTAL(9,I59:I59)</f>
+        <f t="shared" si="10"/>
         <v>22000</v>
       </c>
       <c r="J60" s="18">
-        <f>SUBTOTAL(9,J59:J59)</f>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="K60" s="18">
-        <f>SUBTOTAL(9,K59:K59)</f>
+        <f t="shared" si="10"/>
         <v>320</v>
       </c>
       <c r="L60" s="18">
-        <f>SUBTOTAL(9,L59:L59)</f>
+        <f t="shared" si="10"/>
         <v>980</v>
       </c>
       <c r="M60" s="18">
-        <f>SUBTOTAL(9,M59:M59)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="N60" s="18">
-        <f>SUBTOTAL(9,N59:N59)</f>
+        <f t="shared" si="10"/>
         <v>42.333333333333336</v>
       </c>
       <c r="O60" s="49"/>
@@ -4615,7 +4666,7 @@
         <v>8</v>
       </c>
       <c r="N61" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>63.666666666666664</v>
       </c>
     </row>
@@ -4660,7 +4711,7 @@
         <v>16</v>
       </c>
       <c r="N62" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>30.5</v>
       </c>
     </row>
@@ -4705,7 +4756,7 @@
         <v>14</v>
       </c>
       <c r="N63" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>33.666666666666664</v>
       </c>
     </row>
@@ -4714,46 +4765,46 @@
       <c r="B64" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="85"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="17"/>
       <c r="E64" s="22">
-        <f>SUBTOTAL(9,E61:E63)</f>
+        <f t="shared" ref="E64:N64" si="11">SUBTOTAL(9,E61:E63)</f>
         <v>7.67</v>
       </c>
       <c r="F64" s="18">
-        <f>SUBTOTAL(9,F61:F63)</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="G64" s="18">
-        <f>SUBTOTAL(9,G61:G63)</f>
+        <f t="shared" si="11"/>
         <v>8770</v>
       </c>
       <c r="H64" s="18">
-        <f>SUBTOTAL(9,H61:H63)</f>
+        <f t="shared" si="11"/>
         <v>13650</v>
       </c>
       <c r="I64" s="18">
-        <f>SUBTOTAL(9,I61:I63)</f>
+        <f t="shared" si="11"/>
         <v>83000</v>
       </c>
       <c r="J64" s="18">
-        <f>SUBTOTAL(9,J61:J63)</f>
+        <f t="shared" si="11"/>
         <v>127</v>
       </c>
       <c r="K64" s="18">
-        <f>SUBTOTAL(9,K61:K63)</f>
+        <f t="shared" si="11"/>
         <v>1660</v>
       </c>
       <c r="L64" s="18">
-        <f>SUBTOTAL(9,L61:L63)</f>
+        <f t="shared" si="11"/>
         <v>2940</v>
       </c>
       <c r="M64" s="18">
-        <f>SUBTOTAL(9,M61:M63)</f>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="N64" s="18">
-        <f>SUBTOTAL(9,N61:N63)</f>
+        <f t="shared" si="11"/>
         <v>127.83333333333331</v>
       </c>
       <c r="O64" s="49"/>
@@ -4799,7 +4850,7 @@
         <v>13</v>
       </c>
       <c r="N65" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>41.666666666666664</v>
       </c>
     </row>
@@ -4844,7 +4895,7 @@
         <v>16</v>
       </c>
       <c r="N66" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>56.833333333333336</v>
       </c>
     </row>
@@ -4889,7 +4940,7 @@
         <v>8</v>
       </c>
       <c r="N67" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>30.5</v>
       </c>
     </row>
@@ -4934,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="N68" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
     </row>
@@ -4979,7 +5030,7 @@
         <v>8</v>
       </c>
       <c r="N69" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>53.666666666666664</v>
       </c>
     </row>
@@ -5124,49 +5175,49 @@
     </row>
     <row r="73" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A73" s="16"/>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="85"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="17"/>
       <c r="E73" s="22">
-        <f>SUBTOTAL(9,E65:E72)</f>
+        <f t="shared" ref="E73:N73" si="12">SUBTOTAL(9,E65:E72)</f>
         <v>24.01</v>
       </c>
       <c r="F73" s="18">
-        <f>SUBTOTAL(9,F65:F72)</f>
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
       <c r="G73" s="18">
-        <f>SUBTOTAL(9,G65:G72)</f>
+        <f t="shared" si="12"/>
         <v>13330</v>
       </c>
       <c r="H73" s="18">
-        <f>SUBTOTAL(9,H65:H72)</f>
+        <f t="shared" si="12"/>
         <v>16250</v>
       </c>
       <c r="I73" s="18">
-        <f>SUBTOTAL(9,I65:I72)</f>
+        <f t="shared" si="12"/>
         <v>177000</v>
       </c>
       <c r="J73" s="18">
-        <f>SUBTOTAL(9,J65:J72)</f>
+        <f t="shared" si="12"/>
         <v>188</v>
       </c>
       <c r="K73" s="18">
-        <f>SUBTOTAL(9,K65:K72)</f>
+        <f t="shared" si="12"/>
         <v>2760</v>
       </c>
       <c r="L73" s="18">
-        <f>SUBTOTAL(9,L65:L72)</f>
+        <f t="shared" si="12"/>
         <v>6180</v>
       </c>
       <c r="M73" s="18">
-        <f>SUBTOTAL(9,M65:M72)</f>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="N73" s="18">
-        <f>SUBTOTAL(9,N65:N72)</f>
+        <f t="shared" si="12"/>
         <v>305.66666666666663</v>
       </c>
       <c r="O73" s="49"/>
@@ -5212,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="N74" s="14">
-        <f t="shared" ref="N74:N79" si="1">SUM((E74*500)/30)</f>
+        <f t="shared" ref="N74:N79" si="13">SUM((E74*500)/30)</f>
         <v>32.5</v>
       </c>
     </row>
@@ -5257,7 +5308,7 @@
         <v>22</v>
       </c>
       <c r="N75" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>70.833333333333329</v>
       </c>
     </row>
@@ -5302,7 +5353,7 @@
         <v>28</v>
       </c>
       <c r="N76" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>93.666666666666671</v>
       </c>
     </row>
@@ -5347,7 +5398,7 @@
         <v>19</v>
       </c>
       <c r="N77" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>63.5</v>
       </c>
     </row>
@@ -5392,7 +5443,7 @@
         <v>32</v>
       </c>
       <c r="N78" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>57.5</v>
       </c>
     </row>
@@ -5437,55 +5488,55 @@
         <v>24</v>
       </c>
       <c r="N79" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>55.666666666666664</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A80" s="16"/>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="85"/>
+      <c r="C80" s="84"/>
       <c r="D80" s="17"/>
       <c r="E80" s="22">
-        <f>SUBTOTAL(9,E74:E79)</f>
+        <f t="shared" ref="E80:N80" si="14">SUBTOTAL(9,E74:E79)</f>
         <v>22.42</v>
       </c>
       <c r="F80" s="18">
-        <f>SUBTOTAL(9,F74:F79)</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="G80" s="18">
-        <f>SUBTOTAL(9,G74:G79)</f>
+        <f t="shared" si="14"/>
         <v>13170</v>
       </c>
       <c r="H80" s="18">
-        <f>SUBTOTAL(9,H74:H79)</f>
+        <f t="shared" si="14"/>
         <v>18560</v>
       </c>
       <c r="I80" s="18">
-        <f>SUBTOTAL(9,I74:I79)</f>
+        <f t="shared" si="14"/>
         <v>231000</v>
       </c>
       <c r="J80" s="18">
-        <f>SUBTOTAL(9,J74:J79)</f>
+        <f t="shared" si="14"/>
         <v>172</v>
       </c>
       <c r="K80" s="18">
-        <f>SUBTOTAL(9,K74:K79)</f>
+        <f t="shared" si="14"/>
         <v>5010</v>
       </c>
       <c r="L80" s="18">
-        <f>SUBTOTAL(9,L74:L79)</f>
+        <f t="shared" si="14"/>
         <v>7950</v>
       </c>
       <c r="M80" s="18">
-        <f>SUBTOTAL(9,M74:M79)</f>
+        <f t="shared" si="14"/>
         <v>133</v>
       </c>
       <c r="N80" s="18">
-        <f>SUBTOTAL(9,N74:N79)</f>
+        <f t="shared" si="14"/>
         <v>373.66666666666669</v>
       </c>
       <c r="O80" s="49"/>
@@ -6127,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="N94" s="14">
-        <f t="shared" ref="N94:N101" si="2">SUM((E94*500)/30)</f>
+        <f t="shared" ref="N94:N101" si="15">SUM((E94*500)/30)</f>
         <v>40.666666666666664</v>
       </c>
     </row>
@@ -6172,7 +6223,7 @@
         <v>22</v>
       </c>
       <c r="N95" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>47.5</v>
       </c>
     </row>
@@ -6217,7 +6268,7 @@
         <v>32</v>
       </c>
       <c r="N96" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>57.166666666666664</v>
       </c>
     </row>
@@ -6262,7 +6313,7 @@
         <v>18</v>
       </c>
       <c r="N97" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>71.333333333333329</v>
       </c>
     </row>
@@ -6307,7 +6358,7 @@
         <v>21</v>
       </c>
       <c r="N98" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>65.666666666666671</v>
       </c>
     </row>
@@ -6352,7 +6403,7 @@
         <v>34</v>
       </c>
       <c r="N99" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>56.333333333333336</v>
       </c>
     </row>
@@ -6397,7 +6448,7 @@
         <v>19</v>
       </c>
       <c r="N100" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>57.5</v>
       </c>
     </row>
@@ -6442,55 +6493,55 @@
         <v>14</v>
       </c>
       <c r="N101" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>65.5</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A102" s="16"/>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="79"/>
+      <c r="C102" s="78"/>
       <c r="D102" s="17"/>
       <c r="E102" s="22">
-        <f>SUBTOTAL(9,E81:E101)</f>
+        <f t="shared" ref="E102:N102" si="16">SUBTOTAL(9,E81:E101)</f>
         <v>76.890000000000015</v>
       </c>
       <c r="F102" s="18">
-        <f>SUBTOTAL(9,F81:F101)</f>
+        <f t="shared" si="16"/>
         <v>336</v>
       </c>
       <c r="G102" s="18">
-        <f>SUBTOTAL(9,G81:G101)</f>
+        <f t="shared" si="16"/>
         <v>35290</v>
       </c>
       <c r="H102" s="18">
-        <f>SUBTOTAL(9,H81:H101)</f>
+        <f t="shared" si="16"/>
         <v>45740</v>
       </c>
       <c r="I102" s="18">
-        <f>SUBTOTAL(9,I81:I101)</f>
+        <f t="shared" si="16"/>
         <v>999000</v>
       </c>
       <c r="J102" s="18">
-        <f>SUBTOTAL(9,J81:J101)</f>
+        <f t="shared" si="16"/>
         <v>639</v>
       </c>
       <c r="K102" s="18">
-        <f>SUBTOTAL(9,K81:K101)</f>
+        <f t="shared" si="16"/>
         <v>32640</v>
       </c>
       <c r="L102" s="18">
-        <f>SUBTOTAL(9,L81:L101)</f>
+        <f t="shared" si="16"/>
         <v>39240</v>
       </c>
       <c r="M102" s="18">
-        <f>SUBTOTAL(9,M81:M101)</f>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="N102" s="18">
-        <f>SUBTOTAL(9,N81:N101)</f>
+        <f t="shared" si="16"/>
         <v>823.16666666666674</v>
       </c>
       <c r="O102" s="49"/>
@@ -6536,7 +6587,7 @@
         <v>22</v>
       </c>
       <c r="N103" s="14">
-        <f t="shared" ref="N103:N108" si="3">SUM((E103*500)/30)</f>
+        <f t="shared" ref="N103:N108" si="17">SUM((E103*500)/30)</f>
         <v>67.833333333333343</v>
       </c>
     </row>
@@ -6581,7 +6632,7 @@
         <v>16</v>
       </c>
       <c r="N104" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>50.5</v>
       </c>
     </row>
@@ -6626,7 +6677,7 @@
         <v>25</v>
       </c>
       <c r="N105" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>58.666666666666664</v>
       </c>
     </row>
@@ -6671,7 +6722,7 @@
         <v>27</v>
       </c>
       <c r="N106" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>58.5</v>
       </c>
     </row>
@@ -6716,7 +6767,7 @@
         <v>18</v>
       </c>
       <c r="N107" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>61.333333333333336</v>
       </c>
     </row>
@@ -6761,55 +6812,55 @@
         <v>20</v>
       </c>
       <c r="N108" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>56.666666666666664</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A109" s="16"/>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C109" s="79"/>
+      <c r="C109" s="78"/>
       <c r="D109" s="17"/>
       <c r="E109" s="22">
-        <f>SUBTOTAL(9,E103:E108)</f>
+        <f t="shared" ref="E109:N109" si="18">SUBTOTAL(9,E103:E108)</f>
         <v>21.209999999999997</v>
       </c>
       <c r="F109" s="18">
-        <f>SUBTOTAL(9,F103:F108)</f>
+        <f t="shared" si="18"/>
         <v>96</v>
       </c>
       <c r="G109" s="18">
-        <f>SUBTOTAL(9,G103:G108)</f>
+        <f t="shared" si="18"/>
         <v>16370</v>
       </c>
       <c r="H109" s="18">
-        <f>SUBTOTAL(9,H103:H108)</f>
+        <f t="shared" si="18"/>
         <v>21110</v>
       </c>
       <c r="I109" s="18">
-        <f>SUBTOTAL(9,I103:I108)</f>
+        <f t="shared" si="18"/>
         <v>448000</v>
       </c>
       <c r="J109" s="18">
-        <f>SUBTOTAL(9,J103:J108)</f>
+        <f t="shared" si="18"/>
         <v>196</v>
       </c>
       <c r="K109" s="18">
-        <f>SUBTOTAL(9,K103:K108)</f>
+        <f t="shared" si="18"/>
         <v>11290</v>
       </c>
       <c r="L109" s="18">
-        <f>SUBTOTAL(9,L103:L108)</f>
+        <f t="shared" si="18"/>
         <v>16400</v>
       </c>
       <c r="M109" s="18">
-        <f>SUBTOTAL(9,M103:M108)</f>
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
       <c r="N109" s="18">
-        <f>SUBTOTAL(9,N103:N108)</f>
+        <f t="shared" si="18"/>
         <v>353.5</v>
       </c>
       <c r="O109" s="49"/>
@@ -7090,49 +7141,49 @@
     </row>
     <row r="116" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A116" s="16"/>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C116" s="79"/>
+      <c r="C116" s="78"/>
       <c r="D116" s="17"/>
       <c r="E116" s="22">
-        <f>SUBTOTAL(9,E110:E115)</f>
+        <f t="shared" ref="E116:N116" si="19">SUBTOTAL(9,E110:E115)</f>
         <v>20.580000000000002</v>
       </c>
       <c r="F116" s="18">
-        <f>SUBTOTAL(9,F110:F115)</f>
+        <f t="shared" si="19"/>
         <v>87</v>
       </c>
       <c r="G116" s="18">
-        <f>SUBTOTAL(9,G110:G115)</f>
+        <f t="shared" si="19"/>
         <v>9760</v>
       </c>
       <c r="H116" s="18">
-        <f>SUBTOTAL(9,H110:H115)</f>
+        <f t="shared" si="19"/>
         <v>11200</v>
       </c>
       <c r="I116" s="18">
-        <f>SUBTOTAL(9,I110:I115)</f>
+        <f t="shared" si="19"/>
         <v>252000</v>
       </c>
       <c r="J116" s="18">
-        <f>SUBTOTAL(9,J110:J115)</f>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="K116" s="18">
-        <f>SUBTOTAL(9,K110:K115)</f>
+        <f t="shared" si="19"/>
         <v>6980</v>
       </c>
       <c r="L116" s="18">
-        <f>SUBTOTAL(9,L110:L115)</f>
+        <f t="shared" si="19"/>
         <v>8840</v>
       </c>
       <c r="M116" s="18">
-        <f>SUBTOTAL(9,M110:M115)</f>
+        <f t="shared" si="19"/>
         <v>136</v>
       </c>
       <c r="N116" s="18">
-        <f>SUBTOTAL(9,N110:N115)</f>
+        <f t="shared" si="19"/>
         <v>214.83333333333337</v>
       </c>
       <c r="O116" s="49"/>
@@ -7372,49 +7423,49 @@
     </row>
     <row r="122" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A122" s="16"/>
-      <c r="B122" s="77" t="s">
+      <c r="B122" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="79"/>
+      <c r="C122" s="78"/>
       <c r="D122" s="17"/>
       <c r="E122" s="22">
-        <f>SUBTOTAL(9,E117:E121)</f>
+        <f t="shared" ref="E122:N122" si="20">SUBTOTAL(9,E117:E121)</f>
         <v>17.649999999999999</v>
       </c>
       <c r="F122" s="18">
-        <f>SUBTOTAL(9,F117:F121)</f>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
       <c r="G122" s="18">
-        <f>SUBTOTAL(9,G117:G121)</f>
+        <f t="shared" si="20"/>
         <v>6890</v>
       </c>
       <c r="H122" s="18">
-        <f>SUBTOTAL(9,H117:H121)</f>
+        <f t="shared" si="20"/>
         <v>8120</v>
       </c>
       <c r="I122" s="18">
-        <f>SUBTOTAL(9,I117:I121)</f>
+        <f t="shared" si="20"/>
         <v>182000</v>
       </c>
       <c r="J122" s="18">
-        <f>SUBTOTAL(9,J117:J121)</f>
+        <f t="shared" si="20"/>
         <v>155</v>
       </c>
       <c r="K122" s="18">
-        <f>SUBTOTAL(9,K117:K121)</f>
+        <f t="shared" si="20"/>
         <v>5760</v>
       </c>
       <c r="L122" s="18">
-        <f>SUBTOTAL(9,L117:L121)</f>
+        <f t="shared" si="20"/>
         <v>6960</v>
       </c>
       <c r="M122" s="18">
-        <f>SUBTOTAL(9,M117:M121)</f>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="N122" s="18">
-        <f>SUBTOTAL(9,N117:N121)</f>
+        <f t="shared" si="20"/>
         <v>55.166666666666664</v>
       </c>
       <c r="O122" s="49"/>
@@ -7558,49 +7609,49 @@
     </row>
     <row r="126" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A126" s="16"/>
-      <c r="B126" s="77" t="s">
+      <c r="B126" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C126" s="79"/>
+      <c r="C126" s="78"/>
       <c r="D126" s="17"/>
       <c r="E126" s="22">
-        <f>SUBTOTAL(9,E123:E125)</f>
+        <f t="shared" ref="E126:N126" si="21">SUBTOTAL(9,E123:E125)</f>
         <v>8.25</v>
       </c>
       <c r="F126" s="18">
-        <f>SUBTOTAL(9,F123:F125)</f>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="G126" s="18">
-        <f>SUBTOTAL(9,G123:G125)</f>
+        <f t="shared" si="21"/>
         <v>7340</v>
       </c>
       <c r="H126" s="18">
-        <f>SUBTOTAL(9,H123:H125)</f>
+        <f t="shared" si="21"/>
         <v>8160</v>
       </c>
       <c r="I126" s="18">
-        <f>SUBTOTAL(9,I123:I125)</f>
+        <f t="shared" si="21"/>
         <v>112000</v>
       </c>
       <c r="J126" s="18">
-        <f>SUBTOTAL(9,J123:J125)</f>
+        <f t="shared" si="21"/>
         <v>132</v>
       </c>
       <c r="K126" s="18">
-        <f>SUBTOTAL(9,K123:K125)</f>
+        <f t="shared" si="21"/>
         <v>6650</v>
       </c>
       <c r="L126" s="18">
-        <f>SUBTOTAL(9,L123:L125)</f>
+        <f t="shared" si="21"/>
         <v>8400</v>
       </c>
       <c r="M126" s="18">
-        <f>SUBTOTAL(9,M123:M125)</f>
+        <f t="shared" si="21"/>
         <v>72</v>
       </c>
       <c r="N126" s="18">
-        <f>SUBTOTAL(9,N123:N125)</f>
+        <f t="shared" si="21"/>
         <v>89.166666666666657</v>
       </c>
       <c r="O126" s="49"/>
@@ -7653,50 +7704,50 @@
       </c>
     </row>
     <row r="128" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A128" s="77"/>
-      <c r="B128" s="77" t="s">
+      <c r="A128" s="76"/>
+      <c r="B128" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="85"/>
+      <c r="C128" s="84"/>
       <c r="D128" s="17"/>
       <c r="E128" s="22">
-        <f>SUBTOTAL(9,E127:E127)</f>
+        <f t="shared" ref="E128:N128" si="22">SUBTOTAL(9,E127:E127)</f>
         <v>4.46</v>
       </c>
       <c r="F128" s="18">
-        <f>SUBTOTAL(9,F127:F127)</f>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="G128" s="18">
-        <f>SUBTOTAL(9,G127:G127)</f>
+        <f t="shared" si="22"/>
         <v>1940</v>
       </c>
       <c r="H128" s="18">
-        <f>SUBTOTAL(9,H127:H127)</f>
+        <f t="shared" si="22"/>
         <v>2230</v>
       </c>
       <c r="I128" s="18">
-        <f>SUBTOTAL(9,I127:I127)</f>
+        <f t="shared" si="22"/>
         <v>28000</v>
       </c>
       <c r="J128" s="18">
-        <f>SUBTOTAL(9,J127:J127)</f>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="K128" s="18">
-        <f>SUBTOTAL(9,K127:K127)</f>
+        <f t="shared" si="22"/>
         <v>2960</v>
       </c>
       <c r="L128" s="18">
-        <f>SUBTOTAL(9,L127:L127)</f>
+        <f t="shared" si="22"/>
         <v>3320</v>
       </c>
       <c r="M128" s="18">
-        <f>SUBTOTAL(9,M127:M127)</f>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="N128" s="18">
-        <f>SUBTOTAL(9,N127:N127)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O128" s="49"/>
@@ -7836,7 +7887,7 @@
         <v>9</v>
       </c>
       <c r="N131" s="33">
-        <f t="shared" ref="N131:N136" si="4">SUM((E131*500)/30)</f>
+        <f t="shared" ref="N131:N136" si="23">SUM((E131*500)/30)</f>
         <v>32</v>
       </c>
     </row>
@@ -7881,7 +7932,7 @@
         <v>13</v>
       </c>
       <c r="N132" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>48.333333333333336</v>
       </c>
     </row>
@@ -7926,7 +7977,7 @@
         <v>22</v>
       </c>
       <c r="N133" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
     </row>
@@ -7971,7 +8022,7 @@
         <v>17</v>
       </c>
       <c r="N134" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>73.5</v>
       </c>
     </row>
@@ -8016,7 +8067,7 @@
         <v>27</v>
       </c>
       <c r="N135" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>56.5</v>
       </c>
     </row>
@@ -8061,56 +8112,56 @@
         <v>8</v>
       </c>
       <c r="N136" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>54.5</v>
       </c>
       <c r="O136" s="51"/>
     </row>
     <row r="137" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A137" s="16"/>
-      <c r="B137" s="77" t="s">
+      <c r="B137" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C137" s="85"/>
+      <c r="C137" s="84"/>
       <c r="D137" s="17"/>
       <c r="E137" s="22">
-        <f>SUBTOTAL(9,E129:E136)</f>
+        <f t="shared" ref="E137:N137" si="24">SUBTOTAL(9,E129:E136)</f>
         <v>26.110000000000003</v>
       </c>
       <c r="F137" s="18">
-        <f>SUBTOTAL(9,F129:F136)</f>
+        <f t="shared" si="24"/>
         <v>126</v>
       </c>
       <c r="G137" s="18">
-        <f>SUBTOTAL(9,G129:G136)</f>
+        <f t="shared" si="24"/>
         <v>17460</v>
       </c>
       <c r="H137" s="18">
-        <f>SUBTOTAL(9,H129:H136)</f>
+        <f t="shared" si="24"/>
         <v>23140</v>
       </c>
       <c r="I137" s="18">
-        <f>SUBTOTAL(9,I129:I136)</f>
+        <f t="shared" si="24"/>
         <v>230000</v>
       </c>
       <c r="J137" s="18">
-        <f>SUBTOTAL(9,J129:J136)</f>
+        <f t="shared" si="24"/>
         <v>360</v>
       </c>
       <c r="K137" s="18">
-        <f>SUBTOTAL(9,K129:K136)</f>
+        <f t="shared" si="24"/>
         <v>20880</v>
       </c>
       <c r="L137" s="18">
-        <f>SUBTOTAL(9,L129:L136)</f>
+        <f t="shared" si="24"/>
         <v>25550</v>
       </c>
       <c r="M137" s="18">
-        <f>SUBTOTAL(9,M129:M136)</f>
+        <f t="shared" si="24"/>
         <v>132</v>
       </c>
       <c r="N137" s="18">
-        <f>SUBTOTAL(9,N129:N136)</f>
+        <f t="shared" si="24"/>
         <v>318.83333333333337</v>
       </c>
       <c r="O137" s="49"/>
@@ -8162,49 +8213,49 @@
     </row>
     <row r="139" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A139" s="16"/>
-      <c r="B139" s="77" t="s">
+      <c r="B139" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="85"/>
+      <c r="C139" s="84"/>
       <c r="D139" s="17"/>
       <c r="E139" s="22">
-        <f>SUBTOTAL(9,E138:E138)</f>
+        <f t="shared" ref="E139:N139" si="25">SUBTOTAL(9,E138:E138)</f>
         <v>3.6</v>
       </c>
       <c r="F139" s="18">
-        <f>SUBTOTAL(9,F138:F138)</f>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="G139" s="18">
-        <f>SUBTOTAL(9,G138:G138)</f>
+        <f t="shared" si="25"/>
         <v>3240</v>
       </c>
       <c r="H139" s="18">
-        <f>SUBTOTAL(9,H138:H138)</f>
+        <f t="shared" si="25"/>
         <v>4160</v>
       </c>
       <c r="I139" s="18">
-        <f>SUBTOTAL(9,I138:I138)</f>
+        <f t="shared" si="25"/>
         <v>28000</v>
       </c>
       <c r="J139" s="18">
-        <f>SUBTOTAL(9,J138:J138)</f>
+        <f t="shared" si="25"/>
         <v>54</v>
       </c>
       <c r="K139" s="18">
-        <f>SUBTOTAL(9,K138:K138)</f>
+        <f t="shared" si="25"/>
         <v>1360</v>
       </c>
       <c r="L139" s="18">
-        <f>SUBTOTAL(9,L138:L138)</f>
+        <f t="shared" si="25"/>
         <v>2580</v>
       </c>
       <c r="M139" s="18">
-        <f>SUBTOTAL(9,M138:M138)</f>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="N139" s="18">
-        <f>SUBTOTAL(9,N138:N138)</f>
+        <f t="shared" si="25"/>
         <v>60</v>
       </c>
       <c r="O139" s="49"/>
@@ -8250,7 +8301,7 @@
         <v>14</v>
       </c>
       <c r="N140" s="14">
-        <f t="shared" ref="N140:N145" si="5">SUM((E140*500)/30)</f>
+        <f t="shared" ref="N140:N145" si="26">SUM((E140*500)/30)</f>
         <v>67.666666666666657</v>
       </c>
     </row>
@@ -8295,7 +8346,7 @@
         <v>21</v>
       </c>
       <c r="N141" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>35.166666666666664</v>
       </c>
     </row>
@@ -8340,7 +8391,7 @@
         <v>26</v>
       </c>
       <c r="N142" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>50.166666666666664</v>
       </c>
     </row>
@@ -8385,7 +8436,7 @@
         <v>6</v>
       </c>
       <c r="N143" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>56.833333333333336</v>
       </c>
     </row>
@@ -8430,7 +8481,7 @@
         <v>4</v>
       </c>
       <c r="N144" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>61</v>
       </c>
     </row>
@@ -8475,55 +8526,55 @@
         <v>16</v>
       </c>
       <c r="N145" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>75.166666666666671</v>
       </c>
     </row>
     <row r="146" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A146" s="16"/>
-      <c r="B146" s="77" t="s">
+      <c r="B146" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C146" s="85"/>
+      <c r="C146" s="84"/>
       <c r="D146" s="17"/>
       <c r="E146" s="22">
-        <f>SUBTOTAL(9,E140:E145)</f>
+        <f t="shared" ref="E146:N146" si="27">SUBTOTAL(9,E140:E145)</f>
         <v>20.759999999999998</v>
       </c>
       <c r="F146" s="18">
-        <f>SUBTOTAL(9,F140:F145)</f>
+        <f t="shared" si="27"/>
         <v>96</v>
       </c>
       <c r="G146" s="18">
-        <f>SUBTOTAL(9,G140:G145)</f>
+        <f t="shared" si="27"/>
         <v>12860</v>
       </c>
       <c r="H146" s="18">
-        <f>SUBTOTAL(9,H140:H145)</f>
+        <f t="shared" si="27"/>
         <v>18080</v>
       </c>
       <c r="I146" s="18">
-        <f>SUBTOTAL(9,I140:I145)</f>
+        <f t="shared" si="27"/>
         <v>163000</v>
       </c>
       <c r="J146" s="18">
-        <f>SUBTOTAL(9,J140:J145)</f>
+        <f t="shared" si="27"/>
         <v>246</v>
       </c>
       <c r="K146" s="18">
-        <f>SUBTOTAL(9,K140:K145)</f>
+        <f t="shared" si="27"/>
         <v>11250</v>
       </c>
       <c r="L146" s="18">
-        <f>SUBTOTAL(9,L140:L145)</f>
+        <f t="shared" si="27"/>
         <v>14000</v>
       </c>
       <c r="M146" s="18">
-        <f>SUBTOTAL(9,M140:M145)</f>
+        <f t="shared" si="27"/>
         <v>87</v>
       </c>
       <c r="N146" s="18">
-        <f>SUBTOTAL(9,N140:N145)</f>
+        <f t="shared" si="27"/>
         <v>346</v>
       </c>
       <c r="O146" s="49"/>
@@ -8569,7 +8620,7 @@
         <v>24</v>
       </c>
       <c r="N147" s="14">
-        <f t="shared" ref="N147:N164" si="6">SUM((E147*500)/30)</f>
+        <f t="shared" ref="N147:N164" si="28">SUM((E147*500)/30)</f>
         <v>48.166666666666664</v>
       </c>
     </row>
@@ -8614,7 +8665,7 @@
         <v>23</v>
       </c>
       <c r="N148" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>48.166666666666664</v>
       </c>
     </row>
@@ -8659,7 +8710,7 @@
         <v>18</v>
       </c>
       <c r="N149" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>41.833333333333336</v>
       </c>
     </row>
@@ -8704,7 +8755,7 @@
         <v>46</v>
       </c>
       <c r="N150" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>59.666666666666664</v>
       </c>
     </row>
@@ -8749,55 +8800,55 @@
         <v>38</v>
       </c>
       <c r="N151" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>56.833333333333336</v>
       </c>
     </row>
     <row r="152" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A152" s="16"/>
-      <c r="B152" s="77" t="s">
+      <c r="B152" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C152" s="84"/>
+      <c r="C152" s="83"/>
       <c r="D152" s="17"/>
       <c r="E152" s="22">
-        <f>SUBTOTAL(9,E147:E151)</f>
+        <f t="shared" ref="E152:N152" si="29">SUBTOTAL(9,E147:E151)</f>
         <v>15.28</v>
       </c>
       <c r="F152" s="18">
-        <f>SUBTOTAL(9,F147:F151)</f>
+        <f t="shared" si="29"/>
         <v>81</v>
       </c>
       <c r="G152" s="18">
-        <f>SUBTOTAL(9,G147:G151)</f>
+        <f t="shared" si="29"/>
         <v>12700</v>
       </c>
       <c r="H152" s="18">
-        <f>SUBTOTAL(9,H147:H151)</f>
+        <f t="shared" si="29"/>
         <v>13930</v>
       </c>
       <c r="I152" s="18">
-        <f>SUBTOTAL(9,I147:I151)</f>
+        <f t="shared" si="29"/>
         <v>152000</v>
       </c>
       <c r="J152" s="18">
-        <f>SUBTOTAL(9,J147:J151)</f>
+        <f t="shared" si="29"/>
         <v>205</v>
       </c>
       <c r="K152" s="18">
-        <f>SUBTOTAL(9,K147:K151)</f>
+        <f t="shared" si="29"/>
         <v>12930</v>
       </c>
       <c r="L152" s="18">
-        <f>SUBTOTAL(9,L147:L151)</f>
+        <f t="shared" si="29"/>
         <v>14440</v>
       </c>
       <c r="M152" s="18">
-        <f>SUBTOTAL(9,M147:M151)</f>
+        <f t="shared" si="29"/>
         <v>149</v>
       </c>
       <c r="N152" s="18">
-        <f>SUBTOTAL(9,N147:N151)</f>
+        <f t="shared" si="29"/>
         <v>254.66666666666666</v>
       </c>
       <c r="O152" s="49"/>
@@ -8843,7 +8894,7 @@
         <v>24</v>
       </c>
       <c r="N153" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>46.5</v>
       </c>
     </row>
@@ -8888,7 +8939,7 @@
         <v>36</v>
       </c>
       <c r="N154" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>70.166666666666671</v>
       </c>
     </row>
@@ -8933,7 +8984,7 @@
         <v>42</v>
       </c>
       <c r="N155" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>81.333333333333329</v>
       </c>
     </row>
@@ -8978,7 +9029,7 @@
         <v>23</v>
       </c>
       <c r="N156" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>74.5</v>
       </c>
       <c r="O156" s="48"/>
@@ -9024,56 +9075,56 @@
         <v>34</v>
       </c>
       <c r="N157" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>54.833333333333336</v>
       </c>
       <c r="O157" s="48"/>
     </row>
     <row r="158" spans="1:15" s="50" customFormat="1" outlineLevel="1">
       <c r="A158" s="16"/>
-      <c r="B158" s="79" t="s">
+      <c r="B158" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C158" s="79"/>
+      <c r="C158" s="78"/>
       <c r="D158" s="17"/>
       <c r="E158" s="22">
-        <f>SUBTOTAL(9,E153:E157)</f>
+        <f t="shared" ref="E158:N158" si="30">SUBTOTAL(9,E153:E157)</f>
         <v>19.639999999999997</v>
       </c>
       <c r="F158" s="18">
-        <f>SUBTOTAL(9,F153:F157)</f>
+        <f t="shared" si="30"/>
         <v>81</v>
       </c>
       <c r="G158" s="18">
-        <f>SUBTOTAL(9,G153:G157)</f>
+        <f t="shared" si="30"/>
         <v>16950</v>
       </c>
       <c r="H158" s="18">
-        <f>SUBTOTAL(9,H153:H157)</f>
+        <f t="shared" si="30"/>
         <v>18700</v>
       </c>
       <c r="I158" s="18">
-        <f>SUBTOTAL(9,I153:I157)</f>
+        <f t="shared" si="30"/>
         <v>234000</v>
       </c>
       <c r="J158" s="18">
-        <f>SUBTOTAL(9,J153:J157)</f>
+        <f t="shared" si="30"/>
         <v>164</v>
       </c>
       <c r="K158" s="18">
-        <f>SUBTOTAL(9,K153:K157)</f>
+        <f t="shared" si="30"/>
         <v>15860</v>
       </c>
       <c r="L158" s="18">
-        <f>SUBTOTAL(9,L153:L157)</f>
+        <f t="shared" si="30"/>
         <v>17460</v>
       </c>
       <c r="M158" s="18">
-        <f>SUBTOTAL(9,M153:M157)</f>
+        <f t="shared" si="30"/>
         <v>159</v>
       </c>
       <c r="N158" s="18">
-        <f>SUBTOTAL(9,N153:N157)</f>
+        <f t="shared" si="30"/>
         <v>327.33333333333331</v>
       </c>
     </row>
@@ -9118,7 +9169,7 @@
         <v>38</v>
       </c>
       <c r="N159" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>69.333333333333329</v>
       </c>
       <c r="O159" s="48"/>
@@ -9164,7 +9215,7 @@
         <v>26</v>
       </c>
       <c r="N160" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>48.833333333333336</v>
       </c>
       <c r="O160" s="48"/>
@@ -9210,7 +9261,7 @@
         <v>32</v>
       </c>
       <c r="N161" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>39.5</v>
       </c>
       <c r="O161" s="48"/>
@@ -9220,46 +9271,46 @@
       <c r="B162" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C162" s="79"/>
+      <c r="C162" s="78"/>
       <c r="D162" s="17"/>
       <c r="E162" s="22">
-        <f>SUBTOTAL(9,E159:E161)</f>
+        <f t="shared" ref="E162:N162" si="31">SUBTOTAL(9,E159:E161)</f>
         <v>9.4600000000000009</v>
       </c>
       <c r="F162" s="18">
-        <f>SUBTOTAL(9,F159:F161)</f>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
       <c r="G162" s="18">
-        <f>SUBTOTAL(9,G159:G161)</f>
+        <f t="shared" si="31"/>
         <v>11560</v>
       </c>
       <c r="H162" s="18">
-        <f>SUBTOTAL(9,H159:H161)</f>
+        <f t="shared" si="31"/>
         <v>12580</v>
       </c>
       <c r="I162" s="18">
-        <f>SUBTOTAL(9,I159:I161)</f>
+        <f t="shared" si="31"/>
         <v>156000</v>
       </c>
       <c r="J162" s="18">
-        <f>SUBTOTAL(9,J159:J161)</f>
+        <f t="shared" si="31"/>
         <v>141</v>
       </c>
       <c r="K162" s="18">
-        <f>SUBTOTAL(9,K159:K161)</f>
+        <f t="shared" si="31"/>
         <v>6167</v>
       </c>
       <c r="L162" s="18">
-        <f>SUBTOTAL(9,L159:L161)</f>
+        <f t="shared" si="31"/>
         <v>8530</v>
       </c>
       <c r="M162" s="18">
-        <f>SUBTOTAL(9,M159:M161)</f>
+        <f t="shared" si="31"/>
         <v>96</v>
       </c>
       <c r="N162" s="18">
-        <f>SUBTOTAL(9,N159:N161)</f>
+        <f t="shared" si="31"/>
         <v>157.66666666666666</v>
       </c>
     </row>
@@ -9304,7 +9355,7 @@
         <v>43</v>
       </c>
       <c r="N163" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>42.833333333333336</v>
       </c>
       <c r="O163" s="48"/>
@@ -9350,7 +9401,7 @@
         <v>38</v>
       </c>
       <c r="N164" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>39.833333333333336</v>
       </c>
       <c r="O164" s="48"/>
@@ -9396,7 +9447,7 @@
         <v>24</v>
       </c>
       <c r="N165" s="14">
-        <f t="shared" ref="N165:N241" si="7">SUM((E165*500)/30)</f>
+        <f t="shared" ref="N165:N241" si="32">SUM((E165*500)/30)</f>
         <v>66.333333333333329</v>
       </c>
       <c r="O165" s="48"/>
@@ -9442,7 +9493,7 @@
         <v>35</v>
       </c>
       <c r="N166" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>57.833333333333336</v>
       </c>
       <c r="O166" s="48"/>
@@ -9488,7 +9539,7 @@
         <v>26</v>
       </c>
       <c r="N167" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>66.166666666666671</v>
       </c>
       <c r="O167" s="48"/>
@@ -9534,7 +9585,7 @@
         <v>29</v>
       </c>
       <c r="N168" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>52</v>
       </c>
       <c r="O168" s="48"/>
@@ -9544,46 +9595,46 @@
       <c r="B169" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C169" s="79"/>
+      <c r="C169" s="78"/>
       <c r="D169" s="17"/>
       <c r="E169" s="22">
-        <f>SUBTOTAL(9,E163:E168)</f>
+        <f t="shared" ref="E169:N169" si="33">SUBTOTAL(9,E163:E168)</f>
         <v>19.5</v>
       </c>
       <c r="F169" s="18">
-        <f>SUBTOTAL(9,F163:F168)</f>
+        <f t="shared" si="33"/>
         <v>96</v>
       </c>
       <c r="G169" s="18">
-        <f>SUBTOTAL(9,G163:G168)</f>
+        <f t="shared" si="33"/>
         <v>24950</v>
       </c>
       <c r="H169" s="18">
-        <f>SUBTOTAL(9,H163:H168)</f>
+        <f t="shared" si="33"/>
         <v>24740</v>
       </c>
       <c r="I169" s="18">
-        <f>SUBTOTAL(9,I163:I168)</f>
+        <f t="shared" si="33"/>
         <v>282000</v>
       </c>
       <c r="J169" s="18">
-        <f>SUBTOTAL(9,J163:J168)</f>
+        <f t="shared" si="33"/>
         <v>249</v>
       </c>
       <c r="K169" s="18">
-        <f>SUBTOTAL(9,K163:K168)</f>
+        <f t="shared" si="33"/>
         <v>10180</v>
       </c>
       <c r="L169" s="18">
-        <f>SUBTOTAL(9,L163:L168)</f>
+        <f t="shared" si="33"/>
         <v>12240</v>
       </c>
       <c r="M169" s="18">
-        <f>SUBTOTAL(9,M163:M168)</f>
+        <f t="shared" si="33"/>
         <v>195</v>
       </c>
       <c r="N169" s="18">
-        <f>SUBTOTAL(9,N163:N168)</f>
+        <f t="shared" si="33"/>
         <v>325</v>
       </c>
     </row>
@@ -9628,7 +9679,7 @@
         <v>31</v>
       </c>
       <c r="N170" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>52.833333333333336</v>
       </c>
       <c r="O170" s="48"/>
@@ -9674,7 +9725,7 @@
         <v>28</v>
       </c>
       <c r="N171" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>35.333333333333336</v>
       </c>
       <c r="O171" s="48"/>
@@ -9720,7 +9771,7 @@
         <v>34</v>
       </c>
       <c r="N172" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>38.5</v>
       </c>
       <c r="O172" s="48"/>
@@ -9766,7 +9817,7 @@
         <v>26</v>
       </c>
       <c r="N173" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>52.666666666666664</v>
       </c>
       <c r="O173" s="48"/>
@@ -9812,7 +9863,7 @@
         <v>38</v>
       </c>
       <c r="N174" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>66.999999999999986</v>
       </c>
       <c r="O174" s="48"/>
@@ -9858,7 +9909,7 @@
         <v>25</v>
       </c>
       <c r="N175" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>54.333333333333336</v>
       </c>
       <c r="O175" s="48"/>
@@ -9904,7 +9955,7 @@
         <v>16</v>
       </c>
       <c r="N176" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>63.666666666666664</v>
       </c>
       <c r="O176" s="48"/>
@@ -9950,7 +10001,7 @@
         <v>24</v>
       </c>
       <c r="N177" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>81.333333333333329</v>
       </c>
       <c r="O177" s="48"/>
@@ -9960,46 +10011,46 @@
       <c r="B178" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C178" s="79"/>
+      <c r="C178" s="78"/>
       <c r="D178" s="17"/>
       <c r="E178" s="22">
-        <f>SUBTOTAL(9,E170:E177)</f>
+        <f t="shared" ref="E178:N178" si="34">SUBTOTAL(9,E170:E177)</f>
         <v>26.74</v>
       </c>
       <c r="F178" s="18">
-        <f>SUBTOTAL(9,F170:F177)</f>
+        <f t="shared" si="34"/>
         <v>126</v>
       </c>
       <c r="G178" s="18">
-        <f>SUBTOTAL(9,G170:G177)</f>
+        <f t="shared" si="34"/>
         <v>27350</v>
       </c>
       <c r="H178" s="18">
-        <f>SUBTOTAL(9,H170:H177)</f>
+        <f t="shared" si="34"/>
         <v>29270</v>
       </c>
       <c r="I178" s="18">
-        <f>SUBTOTAL(9,I170:I177)</f>
+        <f t="shared" si="34"/>
         <v>399000</v>
       </c>
       <c r="J178" s="18">
-        <f>SUBTOTAL(9,J170:J177)</f>
+        <f t="shared" si="34"/>
         <v>338</v>
       </c>
       <c r="K178" s="18">
-        <f>SUBTOTAL(9,K170:K177)</f>
+        <f t="shared" si="34"/>
         <v>17790</v>
       </c>
       <c r="L178" s="18">
-        <f>SUBTOTAL(9,L170:L177)</f>
+        <f t="shared" si="34"/>
         <v>19810</v>
       </c>
       <c r="M178" s="18">
-        <f>SUBTOTAL(9,M170:M177)</f>
+        <f t="shared" si="34"/>
         <v>222</v>
       </c>
       <c r="N178" s="18">
-        <f>SUBTOTAL(9,N170:N177)</f>
+        <f t="shared" si="34"/>
         <v>445.66666666666663</v>
       </c>
     </row>
@@ -10044,7 +10095,7 @@
         <v>15</v>
       </c>
       <c r="N179" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>84.166666666666671</v>
       </c>
       <c r="O179" s="48"/>
@@ -10090,7 +10141,7 @@
         <v>31</v>
       </c>
       <c r="N180" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>46.5</v>
       </c>
       <c r="O180" s="48"/>
@@ -10136,7 +10187,7 @@
         <v>22</v>
       </c>
       <c r="N181" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>57.833333333333336</v>
       </c>
       <c r="O181" s="48"/>
@@ -10182,7 +10233,7 @@
         <v>28</v>
       </c>
       <c r="N182" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>66.833333333333329</v>
       </c>
       <c r="O182" s="48"/>
@@ -10228,7 +10279,7 @@
         <v>32</v>
       </c>
       <c r="N183" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>53</v>
       </c>
       <c r="O183" s="48"/>
@@ -10238,46 +10289,46 @@
       <c r="B184" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C184" s="79"/>
-      <c r="D184" s="82"/>
-      <c r="E184" s="83">
-        <f>SUBTOTAL(9,E179:E183)</f>
+      <c r="C184" s="78"/>
+      <c r="D184" s="81"/>
+      <c r="E184" s="82">
+        <f t="shared" ref="E184:N184" si="35">SUBTOTAL(9,E179:E183)</f>
         <v>18.5</v>
       </c>
-      <c r="F184" s="78">
-        <f>SUBTOTAL(9,F179:F183)</f>
+      <c r="F184" s="77">
+        <f t="shared" si="35"/>
         <v>81</v>
       </c>
-      <c r="G184" s="78">
-        <f>SUBTOTAL(9,G179:G183)</f>
+      <c r="G184" s="77">
+        <f t="shared" si="35"/>
         <v>13570</v>
       </c>
-      <c r="H184" s="78">
-        <f>SUBTOTAL(9,H179:H183)</f>
+      <c r="H184" s="77">
+        <f t="shared" si="35"/>
         <v>14590</v>
       </c>
-      <c r="I184" s="78">
-        <f>SUBTOTAL(9,I179:I183)</f>
+      <c r="I184" s="77">
+        <f t="shared" si="35"/>
         <v>182000</v>
       </c>
-      <c r="J184" s="78">
-        <f>SUBTOTAL(9,J179:J183)</f>
+      <c r="J184" s="77">
+        <f t="shared" si="35"/>
         <v>201</v>
       </c>
-      <c r="K184" s="78">
-        <f>SUBTOTAL(9,K179:K183)</f>
+      <c r="K184" s="77">
+        <f t="shared" si="35"/>
         <v>11310</v>
       </c>
-      <c r="L184" s="78">
-        <f>SUBTOTAL(9,L179:L183)</f>
+      <c r="L184" s="77">
+        <f t="shared" si="35"/>
         <v>13210</v>
       </c>
-      <c r="M184" s="78">
-        <f>SUBTOTAL(9,M179:M183)</f>
+      <c r="M184" s="77">
+        <f t="shared" si="35"/>
         <v>128</v>
       </c>
       <c r="N184" s="18">
-        <f>SUBTOTAL(9,N179:N183)</f>
+        <f t="shared" si="35"/>
         <v>308.33333333333337</v>
       </c>
     </row>
@@ -10322,7 +10373,7 @@
         <v>15</v>
       </c>
       <c r="N185" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>52.166666666666664</v>
       </c>
     </row>
@@ -10367,7 +10418,7 @@
         <v>28</v>
       </c>
       <c r="N186" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>40.5</v>
       </c>
       <c r="O186" s="48"/>
@@ -10413,7 +10464,7 @@
         <v>33</v>
       </c>
       <c r="N187" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>51.333333333333336</v>
       </c>
     </row>
@@ -10425,43 +10476,43 @@
       <c r="C188" s="67"/>
       <c r="D188" s="17"/>
       <c r="E188" s="16">
-        <f>SUBTOTAL(9,E185:E187)</f>
+        <f t="shared" ref="E188:N188" si="36">SUBTOTAL(9,E185:E187)</f>
         <v>8.64</v>
       </c>
       <c r="F188" s="16">
-        <f>SUBTOTAL(9,F185:F187)</f>
+        <f t="shared" si="36"/>
         <v>48</v>
       </c>
       <c r="G188" s="16">
-        <f>SUBTOTAL(9,G185:G187)</f>
+        <f t="shared" si="36"/>
         <v>8050</v>
       </c>
       <c r="H188" s="16">
-        <f>SUBTOTAL(9,H185:H187)</f>
+        <f t="shared" si="36"/>
         <v>9460</v>
       </c>
       <c r="I188" s="16">
-        <f>SUBTOTAL(9,I185:I187)</f>
+        <f t="shared" si="36"/>
         <v>83000</v>
       </c>
       <c r="J188" s="16">
-        <f>SUBTOTAL(9,J185:J187)</f>
+        <f t="shared" si="36"/>
         <v>91</v>
       </c>
       <c r="K188" s="16">
-        <f>SUBTOTAL(9,K185:K187)</f>
+        <f t="shared" si="36"/>
         <v>6640</v>
       </c>
       <c r="L188" s="16">
-        <f>SUBTOTAL(9,L185:L187)</f>
+        <f t="shared" si="36"/>
         <v>8080</v>
       </c>
       <c r="M188" s="16">
-        <f>SUBTOTAL(9,M185:M187)</f>
+        <f t="shared" si="36"/>
         <v>76</v>
       </c>
       <c r="N188" s="18">
-        <f>SUBTOTAL(9,N185:N187)</f>
+        <f t="shared" si="36"/>
         <v>144</v>
       </c>
       <c r="O188" s="49"/>
@@ -10507,7 +10558,7 @@
         <v>11</v>
       </c>
       <c r="N189" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>48.333333333333336</v>
       </c>
     </row>
@@ -10552,7 +10603,7 @@
         <v>37</v>
       </c>
       <c r="N190" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
     </row>
@@ -10564,43 +10615,43 @@
       <c r="C191" s="67"/>
       <c r="D191" s="17"/>
       <c r="E191" s="16">
-        <f>SUBTOTAL(9,E189:E190)</f>
+        <f t="shared" ref="E191:N191" si="37">SUBTOTAL(9,E189:E190)</f>
         <v>5.9</v>
       </c>
       <c r="F191" s="16">
-        <f>SUBTOTAL(9,F189:F190)</f>
+        <f t="shared" si="37"/>
         <v>33</v>
       </c>
       <c r="G191" s="16">
-        <f>SUBTOTAL(9,G189:G190)</f>
+        <f t="shared" si="37"/>
         <v>4216</v>
       </c>
       <c r="H191" s="16">
-        <f>SUBTOTAL(9,H189:H190)</f>
+        <f t="shared" si="37"/>
         <v>7140</v>
       </c>
       <c r="I191" s="16">
-        <f>SUBTOTAL(9,I189:I190)</f>
+        <f t="shared" si="37"/>
         <v>46600</v>
       </c>
       <c r="J191" s="16">
-        <f>SUBTOTAL(9,J189:J190)</f>
+        <f t="shared" si="37"/>
         <v>56</v>
       </c>
       <c r="K191" s="16">
-        <f>SUBTOTAL(9,K189:K190)</f>
+        <f t="shared" si="37"/>
         <v>3710</v>
       </c>
       <c r="L191" s="16">
-        <f>SUBTOTAL(9,L189:L190)</f>
+        <f t="shared" si="37"/>
         <v>4790</v>
       </c>
       <c r="M191" s="16">
-        <f>SUBTOTAL(9,M189:M190)</f>
+        <f t="shared" si="37"/>
         <v>48</v>
       </c>
       <c r="N191" s="18">
-        <f>SUBTOTAL(9,N189:N190)</f>
+        <f t="shared" si="37"/>
         <v>98.333333333333343</v>
       </c>
       <c r="O191" s="49"/>
@@ -10646,7 +10697,7 @@
         <v>22</v>
       </c>
       <c r="N192" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>33.499999999999993</v>
       </c>
     </row>
@@ -10691,7 +10742,7 @@
         <v>11</v>
       </c>
       <c r="N193" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>33</v>
       </c>
     </row>
@@ -10736,7 +10787,7 @@
         <v>34</v>
       </c>
       <c r="N194" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>45.833333333333336</v>
       </c>
     </row>
@@ -10748,43 +10799,43 @@
       <c r="C195" s="67"/>
       <c r="D195" s="17"/>
       <c r="E195" s="16">
-        <f>SUBTOTAL(9,E192:E194)</f>
+        <f t="shared" ref="E195:N195" si="38">SUBTOTAL(9,E192:E194)</f>
         <v>6.74</v>
       </c>
       <c r="F195" s="16">
-        <f>SUBTOTAL(9,F192:F194)</f>
+        <f t="shared" si="38"/>
         <v>48</v>
       </c>
       <c r="G195" s="16">
-        <f>SUBTOTAL(9,G192:G194)</f>
+        <f t="shared" si="38"/>
         <v>8684</v>
       </c>
       <c r="H195" s="16">
-        <f>SUBTOTAL(9,H192:H194)</f>
+        <f t="shared" si="38"/>
         <v>14658</v>
       </c>
       <c r="I195" s="16">
-        <f>SUBTOTAL(9,I192:I194)</f>
+        <f t="shared" si="38"/>
         <v>79000</v>
       </c>
       <c r="J195" s="16">
-        <f>SUBTOTAL(9,J192:J194)</f>
+        <f t="shared" si="38"/>
         <v>124</v>
       </c>
       <c r="K195" s="16">
-        <f>SUBTOTAL(9,K192:K194)</f>
+        <f t="shared" si="38"/>
         <v>8540</v>
       </c>
       <c r="L195" s="16">
-        <f>SUBTOTAL(9,L192:L194)</f>
+        <f t="shared" si="38"/>
         <v>8740</v>
       </c>
       <c r="M195" s="16">
-        <f>SUBTOTAL(9,M192:M194)</f>
+        <f t="shared" si="38"/>
         <v>67</v>
       </c>
       <c r="N195" s="18">
-        <f>SUBTOTAL(9,N192:N194)</f>
+        <f t="shared" si="38"/>
         <v>112.33333333333334</v>
       </c>
       <c r="O195" s="49"/>
@@ -10830,7 +10881,7 @@
         <v>6</v>
       </c>
       <c r="N196" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>56.833333333333336</v>
       </c>
     </row>
@@ -10875,7 +10926,7 @@
         <v>24</v>
       </c>
       <c r="N197" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>42.5</v>
       </c>
     </row>
@@ -10920,7 +10971,7 @@
         <v>20</v>
       </c>
       <c r="N198" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>29</v>
       </c>
       <c r="O198" s="49"/>
@@ -10966,7 +11017,7 @@
         <v>15</v>
       </c>
       <c r="N199" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>35.5</v>
       </c>
     </row>
@@ -10978,43 +11029,43 @@
       <c r="C200" s="67"/>
       <c r="D200" s="17"/>
       <c r="E200" s="16">
-        <f>SUBTOTAL(9,E196:E199)</f>
+        <f t="shared" ref="E200:N200" si="39">SUBTOTAL(9,E196:E199)</f>
         <v>9.83</v>
       </c>
       <c r="F200" s="18">
-        <f>SUBTOTAL(9,F196:F199)</f>
+        <f t="shared" si="39"/>
         <v>63</v>
       </c>
       <c r="G200" s="18">
-        <f>SUBTOTAL(9,G196:G199)</f>
+        <f t="shared" si="39"/>
         <v>7540</v>
       </c>
       <c r="H200" s="16">
-        <f>SUBTOTAL(9,H196:H199)</f>
+        <f t="shared" si="39"/>
         <v>14240</v>
       </c>
       <c r="I200" s="16">
-        <f>SUBTOTAL(9,I196:I199)</f>
+        <f t="shared" si="39"/>
         <v>115000</v>
       </c>
       <c r="J200" s="16">
-        <f>SUBTOTAL(9,J196:J199)</f>
+        <f t="shared" si="39"/>
         <v>189</v>
       </c>
       <c r="K200" s="16">
-        <f>SUBTOTAL(9,K196:K199)</f>
+        <f t="shared" si="39"/>
         <v>11160</v>
       </c>
       <c r="L200" s="16">
-        <f>SUBTOTAL(9,L196:L199)</f>
+        <f t="shared" si="39"/>
         <v>16490</v>
       </c>
       <c r="M200" s="16">
-        <f>SUBTOTAL(9,M196:M199)</f>
+        <f t="shared" si="39"/>
         <v>65</v>
       </c>
       <c r="N200" s="18">
-        <f>SUBTOTAL(9,N196:N199)</f>
+        <f t="shared" si="39"/>
         <v>163.83333333333334</v>
       </c>
       <c r="O200" s="49"/>
@@ -11060,7 +11111,7 @@
         <v>22</v>
       </c>
       <c r="N201" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>40.5</v>
       </c>
     </row>
@@ -11072,43 +11123,43 @@
       <c r="C202" s="67"/>
       <c r="D202" s="17"/>
       <c r="E202" s="16">
-        <f>SUBTOTAL(9,E201:E201)</f>
+        <f t="shared" ref="E202:N202" si="40">SUBTOTAL(9,E201:E201)</f>
         <v>2.4300000000000002</v>
       </c>
       <c r="F202" s="18">
-        <f>SUBTOTAL(9,F201:F201)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="G202" s="18">
-        <f>SUBTOTAL(9,G201:G201)</f>
+        <f t="shared" si="40"/>
         <v>2260</v>
       </c>
       <c r="H202" s="16">
-        <f>SUBTOTAL(9,H201:H201)</f>
+        <f t="shared" si="40"/>
         <v>2780</v>
       </c>
       <c r="I202" s="16">
-        <f>SUBTOTAL(9,I201:I201)</f>
+        <f t="shared" si="40"/>
         <v>28000</v>
       </c>
       <c r="J202" s="16">
-        <f>SUBTOTAL(9,J201:J201)</f>
+        <f t="shared" si="40"/>
         <v>36</v>
       </c>
       <c r="K202" s="16">
-        <f>SUBTOTAL(9,K201:K201)</f>
+        <f t="shared" si="40"/>
         <v>2870</v>
       </c>
       <c r="L202" s="16">
-        <f>SUBTOTAL(9,L201:L201)</f>
+        <f t="shared" si="40"/>
         <v>3640</v>
       </c>
       <c r="M202" s="16">
-        <f>SUBTOTAL(9,M201:M201)</f>
+        <f t="shared" si="40"/>
         <v>22</v>
       </c>
       <c r="N202" s="18">
-        <f>SUBTOTAL(9,N201:N201)</f>
+        <f t="shared" si="40"/>
         <v>40.5</v>
       </c>
       <c r="O202" s="49"/>
@@ -11154,7 +11205,7 @@
         <v>19</v>
       </c>
       <c r="N203" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>38.666666666666664</v>
       </c>
     </row>
@@ -11199,7 +11250,7 @@
         <v>12</v>
       </c>
       <c r="N204" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>62</v>
       </c>
     </row>
@@ -11211,43 +11262,43 @@
       <c r="C205" s="67"/>
       <c r="D205" s="17"/>
       <c r="E205" s="16">
-        <f>SUBTOTAL(9,E203:E204)</f>
+        <f t="shared" ref="E205:N205" si="41">SUBTOTAL(9,E203:E204)</f>
         <v>6.04</v>
       </c>
       <c r="F205" s="16">
-        <f>SUBTOTAL(9,F203:F204)</f>
+        <f t="shared" si="41"/>
         <v>33</v>
       </c>
       <c r="G205" s="16">
-        <f>SUBTOTAL(9,G203:G204)</f>
+        <f t="shared" si="41"/>
         <v>5030</v>
       </c>
       <c r="H205" s="16">
-        <f>SUBTOTAL(9,H203:H204)</f>
+        <f t="shared" si="41"/>
         <v>4330</v>
       </c>
       <c r="I205" s="16">
-        <f>SUBTOTAL(9,I203:I204)</f>
+        <f t="shared" si="41"/>
         <v>45000</v>
       </c>
       <c r="J205" s="16">
-        <f>SUBTOTAL(9,J203:J204)</f>
+        <f t="shared" si="41"/>
         <v>45</v>
       </c>
       <c r="K205" s="16">
-        <f>SUBTOTAL(9,K203:K204)</f>
+        <f t="shared" si="41"/>
         <v>4650</v>
       </c>
       <c r="L205" s="16">
-        <f>SUBTOTAL(9,L203:L204)</f>
+        <f t="shared" si="41"/>
         <v>5700</v>
       </c>
       <c r="M205" s="16">
-        <f>SUBTOTAL(9,M203:M204)</f>
+        <f t="shared" si="41"/>
         <v>31</v>
       </c>
       <c r="N205" s="18">
-        <f>SUBTOTAL(9,N203:N204)</f>
+        <f t="shared" si="41"/>
         <v>100.66666666666666</v>
       </c>
       <c r="O205" s="49"/>
@@ -11293,7 +11344,7 @@
         <v>14</v>
       </c>
       <c r="N206" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>35.666666666666664</v>
       </c>
     </row>
@@ -11338,7 +11389,7 @@
         <v>18</v>
       </c>
       <c r="N207" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>45.666666666666664</v>
       </c>
     </row>
@@ -11383,7 +11434,7 @@
         <v>10</v>
       </c>
       <c r="N208" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>43.833333333333336</v>
       </c>
     </row>
@@ -11428,7 +11479,7 @@
         <v>6</v>
       </c>
       <c r="N209" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>34.833333333333336</v>
       </c>
     </row>
@@ -11440,43 +11491,43 @@
       <c r="C210" s="67"/>
       <c r="D210" s="17"/>
       <c r="E210" s="16">
-        <f>SUBTOTAL(9,E206:E209)</f>
+        <f t="shared" ref="E210:N210" si="42">SUBTOTAL(9,E206:E209)</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="F210" s="16">
-        <f>SUBTOTAL(9,F206:F209)</f>
+        <f t="shared" si="42"/>
         <v>63</v>
       </c>
       <c r="G210" s="16">
-        <f>SUBTOTAL(9,G206:G209)</f>
+        <f t="shared" si="42"/>
         <v>8410</v>
       </c>
       <c r="H210" s="16">
-        <f>SUBTOTAL(9,H206:H209)</f>
+        <f t="shared" si="42"/>
         <v>9480</v>
       </c>
       <c r="I210" s="16">
-        <f>SUBTOTAL(9,I206:I209)</f>
+        <f t="shared" si="42"/>
         <v>60000</v>
       </c>
       <c r="J210" s="16">
-        <f>SUBTOTAL(9,J206:J209)</f>
+        <f t="shared" si="42"/>
         <v>74</v>
       </c>
       <c r="K210" s="16">
-        <f>SUBTOTAL(9,K206:K209)</f>
+        <f t="shared" si="42"/>
         <v>8380</v>
       </c>
       <c r="L210" s="16">
-        <f>SUBTOTAL(9,L206:L209)</f>
+        <f t="shared" si="42"/>
         <v>9250</v>
       </c>
       <c r="M210" s="16">
-        <f>SUBTOTAL(9,M206:M209)</f>
+        <f t="shared" si="42"/>
         <v>48</v>
       </c>
       <c r="N210" s="18">
-        <f>SUBTOTAL(9,N206:N209)</f>
+        <f t="shared" si="42"/>
         <v>160</v>
       </c>
       <c r="O210" s="49"/>
@@ -11522,7 +11573,7 @@
         <v>8</v>
       </c>
       <c r="N211" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>44.5</v>
       </c>
     </row>
@@ -11567,7 +11618,7 @@
         <v>8</v>
       </c>
       <c r="N212" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>44.5</v>
       </c>
     </row>
@@ -11612,7 +11663,7 @@
         <v>5</v>
       </c>
       <c r="N213" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>59.166666666666664</v>
       </c>
     </row>
@@ -11657,7 +11708,7 @@
         <v>3</v>
       </c>
       <c r="N214" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>64.833333333333329</v>
       </c>
     </row>
@@ -11702,7 +11753,7 @@
         <v>5</v>
       </c>
       <c r="N215" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>59.833333333333336</v>
       </c>
     </row>
@@ -11747,7 +11798,7 @@
         <v>7</v>
       </c>
       <c r="N216" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>52.166666666666664</v>
       </c>
     </row>
@@ -11792,7 +11843,7 @@
         <v>2</v>
       </c>
       <c r="N217" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>55.5</v>
       </c>
     </row>
@@ -11837,7 +11888,7 @@
         <v>7</v>
       </c>
       <c r="N218" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>51.833333333333336</v>
       </c>
     </row>
@@ -11882,7 +11933,7 @@
         <v>3</v>
       </c>
       <c r="N219" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>50.666666666666664</v>
       </c>
     </row>
@@ -11927,7 +11978,7 @@
         <v>4</v>
       </c>
       <c r="N220" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>53.5</v>
       </c>
     </row>
@@ -11972,7 +12023,7 @@
         <v>5</v>
       </c>
       <c r="N221" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>68</v>
       </c>
     </row>
@@ -12017,7 +12068,7 @@
         <v>8</v>
       </c>
       <c r="N222" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>54.333333333333336</v>
       </c>
     </row>
@@ -12062,7 +12113,7 @@
         <v>10</v>
       </c>
       <c r="N223" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>56</v>
       </c>
     </row>
@@ -12107,7 +12158,7 @@
         <v>5</v>
       </c>
       <c r="N224" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>60.333333333333336</v>
       </c>
     </row>
@@ -12152,7 +12203,7 @@
         <v>7</v>
       </c>
       <c r="N225" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>71.166666666666671</v>
       </c>
     </row>
@@ -12197,7 +12248,7 @@
         <v>5</v>
       </c>
       <c r="N226" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>66.833333333333329</v>
       </c>
     </row>
@@ -12242,7 +12293,7 @@
         <v>8</v>
       </c>
       <c r="N227" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>64.666666666666671</v>
       </c>
     </row>
@@ -12287,7 +12338,7 @@
         <v>10</v>
       </c>
       <c r="N228" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>77.833333333333329</v>
       </c>
     </row>
@@ -12299,43 +12350,43 @@
       <c r="C229" s="67"/>
       <c r="D229" s="17"/>
       <c r="E229" s="16">
-        <f>SUBTOTAL(9,E211:E228)</f>
+        <f t="shared" ref="E229:N229" si="43">SUBTOTAL(9,E211:E228)</f>
         <v>63.339999999999989</v>
       </c>
       <c r="F229" s="16">
-        <f>SUBTOTAL(9,F211:F228)</f>
+        <f t="shared" si="43"/>
         <v>291</v>
       </c>
       <c r="G229" s="16">
-        <f>SUBTOTAL(9,G211:G228)</f>
+        <f t="shared" si="43"/>
         <v>15330</v>
       </c>
       <c r="H229" s="16">
-        <f>SUBTOTAL(9,H211:H228)</f>
+        <f t="shared" si="43"/>
         <v>17340</v>
       </c>
       <c r="I229" s="16">
-        <f>SUBTOTAL(9,I211:I228)</f>
+        <f t="shared" si="43"/>
         <v>70000</v>
       </c>
       <c r="J229" s="16">
-        <f>SUBTOTAL(9,J211:J228)</f>
+        <f t="shared" si="43"/>
         <v>248</v>
       </c>
       <c r="K229" s="16">
-        <f>SUBTOTAL(9,K211:K228)</f>
+        <f t="shared" si="43"/>
         <v>21340</v>
       </c>
       <c r="L229" s="16">
-        <f>SUBTOTAL(9,L211:L228)</f>
+        <f t="shared" si="43"/>
         <v>24640</v>
       </c>
       <c r="M229" s="16">
-        <f>SUBTOTAL(9,M211:M228)</f>
+        <f t="shared" si="43"/>
         <v>110</v>
       </c>
       <c r="N229" s="18">
-        <f>SUBTOTAL(9,N211:N228)</f>
+        <f t="shared" si="43"/>
         <v>1055.6666666666667</v>
       </c>
       <c r="O229" s="49"/>
@@ -12381,7 +12432,7 @@
         <v>11</v>
       </c>
       <c r="N230" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>58.833333333333336</v>
       </c>
     </row>
@@ -12426,7 +12477,7 @@
         <v>14</v>
       </c>
       <c r="N231" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>67.833333333333343</v>
       </c>
     </row>
@@ -12471,7 +12522,7 @@
         <v>12</v>
       </c>
       <c r="N232" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>65.5</v>
       </c>
     </row>
@@ -12516,7 +12567,7 @@
         <v>8</v>
       </c>
       <c r="N233" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>43.166666666666664</v>
       </c>
     </row>
@@ -12561,7 +12612,7 @@
         <v>5</v>
       </c>
       <c r="N234" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>63.5</v>
       </c>
     </row>
@@ -12606,7 +12657,7 @@
         <v>9</v>
       </c>
       <c r="N235" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
     </row>
@@ -12651,7 +12702,7 @@
         <v>5</v>
       </c>
       <c r="N236" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>64</v>
       </c>
     </row>
@@ -12696,7 +12747,7 @@
         <v>14</v>
       </c>
       <c r="N237" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>68.333333333333329</v>
       </c>
     </row>
@@ -12708,43 +12759,43 @@
       <c r="C238" s="67"/>
       <c r="D238" s="17"/>
       <c r="E238" s="16">
-        <f>SUBTOTAL(9,E230:E237)</f>
+        <f t="shared" ref="E238:N238" si="44">SUBTOTAL(9,E230:E237)</f>
         <v>29.17</v>
       </c>
       <c r="F238" s="16">
-        <f>SUBTOTAL(9,F230:F237)</f>
+        <f t="shared" si="44"/>
         <v>129</v>
       </c>
       <c r="G238" s="16">
-        <f>SUBTOTAL(9,G230:G237)</f>
+        <f t="shared" si="44"/>
         <v>20340</v>
       </c>
       <c r="H238" s="16">
-        <f>SUBTOTAL(9,H230:H237)</f>
+        <f t="shared" si="44"/>
         <v>20730</v>
       </c>
       <c r="I238" s="16">
-        <f>SUBTOTAL(9,I230:I237)</f>
+        <f t="shared" si="44"/>
         <v>128000</v>
       </c>
       <c r="J238" s="16">
-        <f>SUBTOTAL(9,J230:J237)</f>
+        <f t="shared" si="44"/>
         <v>151</v>
       </c>
       <c r="K238" s="16">
-        <f>SUBTOTAL(9,K230:K237)</f>
+        <f t="shared" si="44"/>
         <v>23110</v>
       </c>
       <c r="L238" s="16">
-        <f>SUBTOTAL(9,L230:L237)</f>
+        <f t="shared" si="44"/>
         <v>25050</v>
       </c>
       <c r="M238" s="16">
-        <f>SUBTOTAL(9,M230:M237)</f>
+        <f t="shared" si="44"/>
         <v>78</v>
       </c>
       <c r="N238" s="18">
-        <f>SUBTOTAL(9,N230:N237)</f>
+        <f t="shared" si="44"/>
         <v>486.16666666666669</v>
       </c>
       <c r="O238" s="49"/>
@@ -12790,7 +12841,7 @@
         <v>12</v>
       </c>
       <c r="N239" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>68.333333333333329</v>
       </c>
       <c r="O239" s="58"/>
@@ -12836,7 +12887,7 @@
         <v>8</v>
       </c>
       <c r="N240" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>42</v>
       </c>
     </row>
@@ -12881,7 +12932,7 @@
         <v>7</v>
       </c>
       <c r="N241" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>32.5</v>
       </c>
     </row>
@@ -12893,43 +12944,43 @@
       <c r="C242" s="67"/>
       <c r="D242" s="17"/>
       <c r="E242" s="16">
-        <f>SUBTOTAL(9,E239:E241)</f>
+        <f t="shared" ref="E242:N242" si="45">SUBTOTAL(9,E239:E241)</f>
         <v>8.5699999999999985</v>
       </c>
       <c r="F242" s="16">
-        <f>SUBTOTAL(9,F239:F241)</f>
+        <f t="shared" si="45"/>
         <v>48</v>
       </c>
       <c r="G242" s="16">
-        <f>SUBTOTAL(9,G239:G241)</f>
+        <f t="shared" si="45"/>
         <v>9440</v>
       </c>
       <c r="H242" s="16">
-        <f>SUBTOTAL(9,H239:H241)</f>
+        <f t="shared" si="45"/>
         <v>8660</v>
       </c>
       <c r="I242" s="16">
-        <f>SUBTOTAL(9,I239:I241)</f>
+        <f t="shared" si="45"/>
         <v>64000</v>
       </c>
       <c r="J242" s="16">
-        <f>SUBTOTAL(9,J239:J241)</f>
+        <f t="shared" si="45"/>
         <v>60</v>
       </c>
       <c r="K242" s="16">
-        <f>SUBTOTAL(9,K239:K241)</f>
+        <f t="shared" si="45"/>
         <v>8530</v>
       </c>
       <c r="L242" s="16">
-        <f>SUBTOTAL(9,L239:L241)</f>
+        <f t="shared" si="45"/>
         <v>9440</v>
       </c>
       <c r="M242" s="16">
-        <f>SUBTOTAL(9,M239:M241)</f>
+        <f t="shared" si="45"/>
         <v>27</v>
       </c>
       <c r="N242" s="18">
-        <f>SUBTOTAL(9,N239:N241)</f>
+        <f t="shared" si="45"/>
         <v>142.83333333333331</v>
       </c>
       <c r="O242" s="49"/>
@@ -12975,7 +13026,7 @@
         <v>18</v>
       </c>
       <c r="N243" s="14">
-        <f t="shared" ref="N243:N316" si="8">SUM((E243*500)/30)</f>
+        <f t="shared" ref="N243:N316" si="46">SUM((E243*500)/30)</f>
         <v>59.666666666666664</v>
       </c>
     </row>
@@ -13020,7 +13071,7 @@
         <v>11</v>
       </c>
       <c r="N244" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>25</v>
       </c>
     </row>
@@ -13065,7 +13116,7 @@
         <v>22</v>
       </c>
       <c r="N245" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>60.5</v>
       </c>
     </row>
@@ -13110,7 +13161,7 @@
         <v>13</v>
       </c>
       <c r="N246" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>36.833333333333336</v>
       </c>
     </row>
@@ -13155,7 +13206,7 @@
         <v>21</v>
       </c>
       <c r="N247" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>67.333333333333329</v>
       </c>
     </row>
@@ -13167,43 +13218,43 @@
       <c r="C248" s="67"/>
       <c r="D248" s="17"/>
       <c r="E248" s="16">
-        <f>SUBTOTAL(9,E243:E247)</f>
+        <f t="shared" ref="E248:N248" si="47">SUBTOTAL(9,E243:E247)</f>
         <v>14.96</v>
       </c>
       <c r="F248" s="16">
-        <f>SUBTOTAL(9,F243:F247)</f>
+        <f t="shared" si="47"/>
         <v>81</v>
       </c>
       <c r="G248" s="16">
-        <f>SUBTOTAL(9,G243:G247)</f>
+        <f t="shared" si="47"/>
         <v>13350</v>
       </c>
       <c r="H248" s="16">
-        <f>SUBTOTAL(9,H243:H247)</f>
+        <f t="shared" si="47"/>
         <v>12260</v>
       </c>
       <c r="I248" s="16">
-        <f>SUBTOTAL(9,I243:I247)</f>
+        <f t="shared" si="47"/>
         <v>89000</v>
       </c>
       <c r="J248" s="16">
-        <f>SUBTOTAL(9,J243:J247)</f>
+        <f t="shared" si="47"/>
         <v>122</v>
       </c>
       <c r="K248" s="16">
-        <f>SUBTOTAL(9,K243:K247)</f>
+        <f t="shared" si="47"/>
         <v>11680</v>
       </c>
       <c r="L248" s="16">
-        <f>SUBTOTAL(9,L243:L247)</f>
+        <f t="shared" si="47"/>
         <v>13650</v>
       </c>
       <c r="M248" s="16">
-        <f>SUBTOTAL(9,M243:M247)</f>
+        <f t="shared" si="47"/>
         <v>85</v>
       </c>
       <c r="N248" s="18">
-        <f>SUBTOTAL(9,N243:N247)</f>
+        <f t="shared" si="47"/>
         <v>249.33333333333331</v>
       </c>
       <c r="O248" s="49"/>
@@ -13249,7 +13300,7 @@
         <v>14</v>
       </c>
       <c r="N249" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>64.5</v>
       </c>
     </row>
@@ -13294,7 +13345,7 @@
         <v>9</v>
       </c>
       <c r="N250" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>61.333333333333336</v>
       </c>
     </row>
@@ -13339,7 +13390,7 @@
         <v>6</v>
       </c>
       <c r="N251" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>36.166666666666664</v>
       </c>
     </row>
@@ -13384,7 +13435,7 @@
         <v>13</v>
       </c>
       <c r="N252" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>35</v>
       </c>
     </row>
@@ -13429,7 +13480,7 @@
         <v>11</v>
       </c>
       <c r="N253" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>61.666666666666664</v>
       </c>
     </row>
@@ -13474,7 +13525,7 @@
         <v>6</v>
       </c>
       <c r="N254" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>56.5</v>
       </c>
     </row>
@@ -13519,7 +13570,7 @@
         <v>8</v>
       </c>
       <c r="N255" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>52.333333333333336</v>
       </c>
     </row>
@@ -13564,7 +13615,7 @@
         <v>5</v>
       </c>
       <c r="N256" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>59</v>
       </c>
     </row>
@@ -13576,43 +13627,43 @@
       <c r="C257" s="25"/>
       <c r="D257" s="13"/>
       <c r="E257" s="56">
-        <f>SUBTOTAL(9,E249:E256)</f>
+        <f t="shared" ref="E257:N257" si="48">SUBTOTAL(9,E249:E256)</f>
         <v>25.59</v>
       </c>
       <c r="F257" s="56">
-        <f>SUBTOTAL(9,F249:F256)</f>
+        <f t="shared" si="48"/>
         <v>129</v>
       </c>
       <c r="G257" s="56">
-        <f>SUBTOTAL(9,G249:G256)</f>
+        <f t="shared" si="48"/>
         <v>19050</v>
       </c>
       <c r="H257" s="56">
-        <f>SUBTOTAL(9,H249:H256)</f>
+        <f t="shared" si="48"/>
         <v>17320</v>
       </c>
       <c r="I257" s="56">
-        <f>SUBTOTAL(9,I249:I256)</f>
+        <f t="shared" si="48"/>
         <v>146000</v>
       </c>
       <c r="J257" s="56">
-        <f>SUBTOTAL(9,J249:J256)</f>
+        <f t="shared" si="48"/>
         <v>233</v>
       </c>
       <c r="K257" s="56">
-        <f>SUBTOTAL(9,K249:K256)</f>
+        <f t="shared" si="48"/>
         <v>15820</v>
       </c>
       <c r="L257" s="56">
-        <f>SUBTOTAL(9,L249:L256)</f>
+        <f t="shared" si="48"/>
         <v>18630</v>
       </c>
       <c r="M257" s="56">
-        <f>SUBTOTAL(9,M249:M256)</f>
+        <f t="shared" si="48"/>
         <v>72</v>
       </c>
       <c r="N257" s="14">
-        <f>SUBTOTAL(9,N249:N256)</f>
+        <f t="shared" si="48"/>
         <v>426.5</v>
       </c>
     </row>
@@ -13657,7 +13708,7 @@
         <v>6</v>
       </c>
       <c r="N258" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>51.166666666666664</v>
       </c>
     </row>
@@ -13702,7 +13753,7 @@
         <v>12</v>
       </c>
       <c r="N259" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>35.833333333333336</v>
       </c>
     </row>
@@ -13714,43 +13765,43 @@
       <c r="C260" s="67"/>
       <c r="D260" s="17"/>
       <c r="E260" s="16">
-        <f>SUBTOTAL(9,E258:E259)</f>
+        <f t="shared" ref="E260:N260" si="49">SUBTOTAL(9,E258:E259)</f>
         <v>5.22</v>
       </c>
       <c r="F260" s="16">
-        <f>SUBTOTAL(9,F258:F259)</f>
+        <f t="shared" si="49"/>
         <v>33</v>
       </c>
       <c r="G260" s="16">
-        <f>SUBTOTAL(9,G258:G259)</f>
+        <f t="shared" si="49"/>
         <v>5690</v>
       </c>
       <c r="H260" s="16">
-        <f>SUBTOTAL(9,H258:H259)</f>
+        <f t="shared" si="49"/>
         <v>5430</v>
       </c>
       <c r="I260" s="16">
-        <f>SUBTOTAL(9,I258:I259)</f>
+        <f t="shared" si="49"/>
         <v>25000</v>
       </c>
       <c r="J260" s="16">
-        <f>SUBTOTAL(9,J258:J259)</f>
+        <f t="shared" si="49"/>
         <v>53</v>
       </c>
       <c r="K260" s="16">
-        <f>SUBTOTAL(9,K258:K259)</f>
+        <f t="shared" si="49"/>
         <v>3330</v>
       </c>
       <c r="L260" s="16">
-        <f>SUBTOTAL(9,L258:L259)</f>
+        <f t="shared" si="49"/>
         <v>4010</v>
       </c>
       <c r="M260" s="16">
-        <f>SUBTOTAL(9,M258:M259)</f>
+        <f t="shared" si="49"/>
         <v>18</v>
       </c>
       <c r="N260" s="18">
-        <f>SUBTOTAL(9,N258:N259)</f>
+        <f t="shared" si="49"/>
         <v>87</v>
       </c>
       <c r="O260" s="49"/>
@@ -13796,7 +13847,7 @@
         <v>8</v>
       </c>
       <c r="N261" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>46</v>
       </c>
     </row>
@@ -13841,7 +13892,7 @@
         <v>7</v>
       </c>
       <c r="N262" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>46</v>
       </c>
     </row>
@@ -13853,43 +13904,43 @@
       <c r="C263" s="67"/>
       <c r="D263" s="17"/>
       <c r="E263" s="16">
-        <f>SUBTOTAL(9,E261:E262)</f>
+        <f t="shared" ref="E263:N263" si="50">SUBTOTAL(9,E261:E262)</f>
         <v>5.52</v>
       </c>
       <c r="F263" s="16">
-        <f>SUBTOTAL(9,F261:F262)</f>
+        <f t="shared" si="50"/>
         <v>33</v>
       </c>
       <c r="G263" s="16">
-        <f>SUBTOTAL(9,G261:G262)</f>
+        <f t="shared" si="50"/>
         <v>5710</v>
       </c>
       <c r="H263" s="16">
-        <f>SUBTOTAL(9,H261:H262)</f>
+        <f t="shared" si="50"/>
         <v>5230</v>
       </c>
       <c r="I263" s="16">
-        <f>SUBTOTAL(9,I261:I262)</f>
+        <f t="shared" si="50"/>
         <v>21000</v>
       </c>
       <c r="J263" s="16">
-        <f>SUBTOTAL(9,J261:J262)</f>
+        <f t="shared" si="50"/>
         <v>53</v>
       </c>
       <c r="K263" s="16">
-        <f>SUBTOTAL(9,K261:K262)</f>
+        <f t="shared" si="50"/>
         <v>3420</v>
       </c>
       <c r="L263" s="16">
-        <f>SUBTOTAL(9,L261:L262)</f>
+        <f t="shared" si="50"/>
         <v>4480</v>
       </c>
       <c r="M263" s="16">
-        <f>SUBTOTAL(9,M261:M262)</f>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="N263" s="18">
-        <f>SUBTOTAL(9,N261:N262)</f>
+        <f t="shared" si="50"/>
         <v>92</v>
       </c>
       <c r="O263" s="49"/>
@@ -13935,7 +13986,7 @@
         <v>13</v>
       </c>
       <c r="N264" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>39.666666666666664</v>
       </c>
       <c r="O264" s="60"/>
@@ -13981,7 +14032,7 @@
         <v>11</v>
       </c>
       <c r="N265" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>33.666666666666664</v>
       </c>
       <c r="O265" s="61"/>
@@ -13994,43 +14045,43 @@
       <c r="C266" s="67"/>
       <c r="D266" s="17"/>
       <c r="E266" s="16">
-        <f>SUBTOTAL(9,E264:E265)</f>
+        <f t="shared" ref="E266:N266" si="51">SUBTOTAL(9,E264:E265)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="F266" s="16">
-        <f>SUBTOTAL(9,F264:F265)</f>
+        <f t="shared" si="51"/>
         <v>30</v>
       </c>
       <c r="G266" s="16">
-        <f>SUBTOTAL(9,G264:G265)</f>
+        <f t="shared" si="51"/>
         <v>5270</v>
       </c>
       <c r="H266" s="16">
-        <f>SUBTOTAL(9,H264:H265)</f>
+        <f t="shared" si="51"/>
         <v>5850</v>
       </c>
       <c r="I266" s="16">
-        <f>SUBTOTAL(9,I264:I265)</f>
+        <f t="shared" si="51"/>
         <v>23000</v>
       </c>
       <c r="J266" s="16">
-        <f>SUBTOTAL(9,J264:J265)</f>
+        <f t="shared" si="51"/>
         <v>55</v>
       </c>
       <c r="K266" s="16">
-        <f>SUBTOTAL(9,K264:K265)</f>
+        <f t="shared" si="51"/>
         <v>3510</v>
       </c>
       <c r="L266" s="16">
-        <f>SUBTOTAL(9,L264:L265)</f>
+        <f t="shared" si="51"/>
         <v>4550</v>
       </c>
       <c r="M266" s="16">
-        <f>SUBTOTAL(9,M264:M265)</f>
+        <f t="shared" si="51"/>
         <v>24</v>
       </c>
       <c r="N266" s="18">
-        <f>SUBTOTAL(9,N264:N265)</f>
+        <f t="shared" si="51"/>
         <v>73.333333333333329</v>
       </c>
       <c r="O266" s="61"/>
@@ -14076,7 +14127,7 @@
         <v>12</v>
       </c>
       <c r="N267" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>36.166666666666664</v>
       </c>
     </row>
@@ -14121,7 +14172,7 @@
         <v>8</v>
       </c>
       <c r="N268" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>34.666666666666664</v>
       </c>
     </row>
@@ -14133,43 +14184,43 @@
       <c r="C269" s="16"/>
       <c r="D269" s="17"/>
       <c r="E269" s="16">
-        <f>SUBTOTAL(9,E267:E268)</f>
+        <f t="shared" ref="E269:N269" si="52">SUBTOTAL(9,E267:E268)</f>
         <v>4.25</v>
       </c>
       <c r="F269" s="16">
-        <f>SUBTOTAL(9,F267:F268)</f>
+        <f t="shared" si="52"/>
         <v>30</v>
       </c>
       <c r="G269" s="16">
-        <f>SUBTOTAL(9,G267:G268)</f>
+        <f t="shared" si="52"/>
         <v>4910</v>
       </c>
       <c r="H269" s="16">
-        <f>SUBTOTAL(9,H267:H268)</f>
+        <f t="shared" si="52"/>
         <v>5950</v>
       </c>
       <c r="I269" s="16">
-        <f>SUBTOTAL(9,I267:I268)</f>
+        <f t="shared" si="52"/>
         <v>36000</v>
       </c>
       <c r="J269" s="16">
-        <f>SUBTOTAL(9,J267:J268)</f>
+        <f t="shared" si="52"/>
         <v>40</v>
       </c>
       <c r="K269" s="16">
-        <f>SUBTOTAL(9,K267:K268)</f>
+        <f t="shared" si="52"/>
         <v>3760</v>
       </c>
       <c r="L269" s="16">
-        <f>SUBTOTAL(9,L267:L268)</f>
+        <f t="shared" si="52"/>
         <v>5320</v>
       </c>
       <c r="M269" s="16">
-        <f>SUBTOTAL(9,M267:M268)</f>
+        <f t="shared" si="52"/>
         <v>20</v>
       </c>
       <c r="N269" s="18">
-        <f>SUBTOTAL(9,N267:N268)</f>
+        <f t="shared" si="52"/>
         <v>70.833333333333329</v>
       </c>
       <c r="O269" s="49"/>
@@ -14215,7 +14266,7 @@
         <v>6</v>
       </c>
       <c r="N270" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>52</v>
       </c>
     </row>
@@ -14260,7 +14311,7 @@
         <v>4</v>
       </c>
       <c r="N271" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>40.833333333333336</v>
       </c>
     </row>
@@ -14305,7 +14356,7 @@
         <v>6</v>
       </c>
       <c r="N272" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>62</v>
       </c>
     </row>
@@ -14350,7 +14401,7 @@
         <v>12</v>
       </c>
       <c r="N273" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -14395,7 +14446,7 @@
         <v>14</v>
       </c>
       <c r="N274" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>59</v>
       </c>
     </row>
@@ -14440,7 +14491,7 @@
         <v>5</v>
       </c>
       <c r="N275" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>53.166666666666664</v>
       </c>
     </row>
@@ -14485,7 +14536,7 @@
         <v>4</v>
       </c>
       <c r="N276" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>75.166666666666671</v>
       </c>
     </row>
@@ -14530,7 +14581,7 @@
         <v>8</v>
       </c>
       <c r="N277" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>49.5</v>
       </c>
     </row>
@@ -14575,7 +14626,7 @@
         <v>3</v>
       </c>
       <c r="N278" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>63</v>
       </c>
     </row>
@@ -14586,44 +14637,44 @@
       </c>
       <c r="C279" s="16"/>
       <c r="D279" s="17"/>
-      <c r="E279" s="81">
-        <f>SUBTOTAL(9,E270:E278)</f>
+      <c r="E279" s="80">
+        <f t="shared" ref="E279:N279" si="53">SUBTOTAL(9,E270:E278)</f>
         <v>31.28</v>
       </c>
       <c r="F279" s="16">
-        <f>SUBTOTAL(9,F270:F278)</f>
+        <f t="shared" si="53"/>
         <v>144</v>
       </c>
       <c r="G279" s="16">
-        <f>SUBTOTAL(9,G270:G278)</f>
+        <f t="shared" si="53"/>
         <v>13510</v>
       </c>
       <c r="H279" s="16">
-        <f>SUBTOTAL(9,H270:H278)</f>
+        <f t="shared" si="53"/>
         <v>17140</v>
       </c>
       <c r="I279" s="16">
-        <f>SUBTOTAL(9,I270:I278)</f>
+        <f t="shared" si="53"/>
         <v>145000</v>
       </c>
       <c r="J279" s="16">
-        <f>SUBTOTAL(9,J270:J278)</f>
+        <f t="shared" si="53"/>
         <v>85</v>
       </c>
       <c r="K279" s="16">
-        <f>SUBTOTAL(9,K270:K278)</f>
+        <f t="shared" si="53"/>
         <v>9000</v>
       </c>
       <c r="L279" s="16">
-        <f>SUBTOTAL(9,L270:L278)</f>
+        <f t="shared" si="53"/>
         <v>15610</v>
       </c>
       <c r="M279" s="16">
-        <f>SUBTOTAL(9,M270:M278)</f>
+        <f t="shared" si="53"/>
         <v>62</v>
       </c>
       <c r="N279" s="18">
-        <f>SUBTOTAL(9,N270:N278)</f>
+        <f t="shared" si="53"/>
         <v>521.33333333333337</v>
       </c>
       <c r="O279" s="49"/>
@@ -14669,7 +14720,7 @@
         <v>7</v>
       </c>
       <c r="N280" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>44.333333333333336</v>
       </c>
     </row>
@@ -14714,7 +14765,7 @@
         <v>10</v>
       </c>
       <c r="N281" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>44</v>
       </c>
     </row>
@@ -14726,43 +14777,43 @@
       <c r="C282" s="16"/>
       <c r="D282" s="17"/>
       <c r="E282" s="16">
-        <f>SUBTOTAL(9,E280:E281)</f>
+        <f t="shared" ref="E282:N282" si="54">SUBTOTAL(9,E280:E281)</f>
         <v>5.3000000000000007</v>
       </c>
       <c r="F282" s="16">
-        <f>SUBTOTAL(9,F280:F281)</f>
+        <f t="shared" si="54"/>
         <v>30</v>
       </c>
       <c r="G282" s="16">
-        <f>SUBTOTAL(9,G280:G281)</f>
+        <f t="shared" si="54"/>
         <v>4680</v>
       </c>
       <c r="H282" s="16">
-        <f>SUBTOTAL(9,H280:H281)</f>
+        <f t="shared" si="54"/>
         <v>5460</v>
       </c>
       <c r="I282" s="16">
-        <f>SUBTOTAL(9,I280:I281)</f>
+        <f t="shared" si="54"/>
         <v>37000</v>
       </c>
       <c r="J282" s="16">
-        <f>SUBTOTAL(9,J280:J281)</f>
+        <f t="shared" si="54"/>
         <v>24</v>
       </c>
       <c r="K282" s="16">
-        <f>SUBTOTAL(9,K280:K281)</f>
+        <f t="shared" si="54"/>
         <v>2960</v>
       </c>
       <c r="L282" s="16">
-        <f>SUBTOTAL(9,L280:L281)</f>
+        <f t="shared" si="54"/>
         <v>3690</v>
       </c>
       <c r="M282" s="16">
-        <f>SUBTOTAL(9,M280:M281)</f>
+        <f t="shared" si="54"/>
         <v>17</v>
       </c>
       <c r="N282" s="18">
-        <f>SUBTOTAL(9,N280:N281)</f>
+        <f t="shared" si="54"/>
         <v>88.333333333333343</v>
       </c>
       <c r="O282" s="49"/>
@@ -14808,7 +14859,7 @@
         <v>12</v>
       </c>
       <c r="N283" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>71.666666666666671</v>
       </c>
     </row>
@@ -14853,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="N284" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>48.5</v>
       </c>
     </row>
@@ -14898,7 +14949,7 @@
         <v>4</v>
       </c>
       <c r="N285" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>60.333333333333336</v>
       </c>
     </row>
@@ -14943,7 +14994,7 @@
         <v>2</v>
       </c>
       <c r="N286" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>40</v>
       </c>
     </row>
@@ -14988,7 +15039,7 @@
         <v>4</v>
       </c>
       <c r="N287" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>53.166666666666664</v>
       </c>
     </row>
@@ -15033,7 +15084,7 @@
         <v>3</v>
       </c>
       <c r="N288" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>50.5</v>
       </c>
     </row>
@@ -15078,7 +15129,7 @@
         <v>4</v>
       </c>
       <c r="N289" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>54.333333333333336</v>
       </c>
     </row>
@@ -15123,7 +15174,7 @@
         <v>3</v>
       </c>
       <c r="N290" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>50.666666666666664</v>
       </c>
     </row>
@@ -15168,7 +15219,7 @@
         <v>4</v>
       </c>
       <c r="N291" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>51.5</v>
       </c>
     </row>
@@ -15213,7 +15264,7 @@
         <v>2</v>
       </c>
       <c r="N292" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>45.333333333333336</v>
       </c>
     </row>
@@ -15258,7 +15309,7 @@
         <v>5</v>
       </c>
       <c r="N293" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>60.833333333333336</v>
       </c>
     </row>
@@ -15303,7 +15354,7 @@
         <v>1</v>
       </c>
       <c r="N294" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>56.333333333333336</v>
       </c>
     </row>
@@ -15348,7 +15399,7 @@
         <v>3</v>
       </c>
       <c r="N295" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>57.333333333333336</v>
       </c>
     </row>
@@ -15393,7 +15444,7 @@
         <v>2</v>
       </c>
       <c r="N296" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>42.833333333333336</v>
       </c>
     </row>
@@ -15438,7 +15489,7 @@
         <v>4</v>
       </c>
       <c r="N297" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>56</v>
       </c>
     </row>
@@ -15483,7 +15534,7 @@
         <v>2</v>
       </c>
       <c r="N298" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>45.333333333333336</v>
       </c>
     </row>
@@ -15528,7 +15579,7 @@
         <v>3</v>
       </c>
       <c r="N299" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>63.5</v>
       </c>
     </row>
@@ -15540,43 +15591,43 @@
       <c r="C300" s="16"/>
       <c r="D300" s="17"/>
       <c r="E300" s="16">
-        <f>SUBTOTAL(9,E283:E299)</f>
+        <f t="shared" ref="E300:N300" si="55">SUBTOTAL(9,E283:E299)</f>
         <v>54.49</v>
       </c>
       <c r="F300" s="16">
-        <f>SUBTOTAL(9,F283:F299)</f>
+        <f t="shared" si="55"/>
         <v>252</v>
       </c>
       <c r="G300" s="16">
-        <f>SUBTOTAL(9,G283:G299)</f>
+        <f t="shared" si="55"/>
         <v>15340</v>
       </c>
       <c r="H300" s="16">
-        <f>SUBTOTAL(9,H283:H299)</f>
+        <f t="shared" si="55"/>
         <v>17690</v>
       </c>
       <c r="I300" s="16">
-        <f>SUBTOTAL(9,I283:I299)</f>
+        <f t="shared" si="55"/>
         <v>135000</v>
       </c>
       <c r="J300" s="16">
-        <f>SUBTOTAL(9,J283:J299)</f>
+        <f t="shared" si="55"/>
         <v>83</v>
       </c>
       <c r="K300" s="16">
-        <f>SUBTOTAL(9,K283:K299)</f>
+        <f t="shared" si="55"/>
         <v>5760</v>
       </c>
       <c r="L300" s="16">
-        <f>SUBTOTAL(9,L283:L299)</f>
+        <f t="shared" si="55"/>
         <v>13090</v>
       </c>
       <c r="M300" s="16">
-        <f>SUBTOTAL(9,M283:M299)</f>
+        <f t="shared" si="55"/>
         <v>59</v>
       </c>
       <c r="N300" s="18">
-        <f>SUBTOTAL(9,N283:N299)</f>
+        <f t="shared" si="55"/>
         <v>908.16666666666686</v>
       </c>
       <c r="O300" s="49"/>
@@ -15622,7 +15673,7 @@
         <v>4</v>
       </c>
       <c r="N301" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>56</v>
       </c>
       <c r="O301" s="75"/>
@@ -15668,7 +15719,7 @@
         <v>5</v>
       </c>
       <c r="N302" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>71.5</v>
       </c>
       <c r="O302" s="75"/>
@@ -15714,7 +15765,7 @@
         <v>3</v>
       </c>
       <c r="N303" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>71.5</v>
       </c>
       <c r="O303" s="75"/>
@@ -15760,7 +15811,7 @@
         <v>2</v>
       </c>
       <c r="N304" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>66.666666666666671</v>
       </c>
       <c r="O304" s="75"/>
@@ -15806,7 +15857,7 @@
         <v>3</v>
       </c>
       <c r="N305" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>54.166666666666664</v>
       </c>
     </row>
@@ -15851,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="N306" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>26.666666666666668</v>
       </c>
     </row>
@@ -15896,7 +15947,7 @@
         <v>2</v>
       </c>
       <c r="N307" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>60.333333333333336</v>
       </c>
     </row>
@@ -15941,7 +15992,7 @@
         <v>3</v>
       </c>
       <c r="N308" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>53.166666666666664</v>
       </c>
     </row>
@@ -15986,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="N309" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>47.666666666666664</v>
       </c>
     </row>
@@ -16031,7 +16082,7 @@
         <v>1</v>
       </c>
       <c r="N310" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>68.333333333333329</v>
       </c>
     </row>
@@ -16045,7 +16096,7 @@
       <c r="C311" s="43">
         <v>2018</v>
       </c>
-      <c r="D311" s="92">
+      <c r="D311" s="87">
         <v>43251</v>
       </c>
       <c r="E311" s="45">
@@ -16076,56 +16127,56 @@
         <v>2</v>
       </c>
       <c r="N311" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>56.333333333333336</v>
       </c>
       <c r="O311" s="51"/>
     </row>
     <row r="312" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A312" s="93"/>
+      <c r="A312" s="88"/>
       <c r="B312" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C312" s="16"/>
-      <c r="D312" s="94"/>
-      <c r="E312" s="93">
-        <f>SUBTOTAL(9,E301:E311)</f>
+      <c r="D312" s="89"/>
+      <c r="E312" s="88">
+        <f t="shared" ref="E312:N312" si="56">SUBTOTAL(9,E301:E311)</f>
         <v>37.940000000000005</v>
       </c>
-      <c r="F312" s="93">
-        <f>SUBTOTAL(9,F301:F311)</f>
+      <c r="F312" s="88">
+        <f t="shared" si="56"/>
         <v>165</v>
       </c>
-      <c r="G312" s="93">
-        <f>SUBTOTAL(9,G301:G311)</f>
+      <c r="G312" s="88">
+        <f t="shared" si="56"/>
         <v>17120</v>
       </c>
-      <c r="H312" s="93">
-        <f>SUBTOTAL(9,H301:H311)</f>
+      <c r="H312" s="88">
+        <f t="shared" si="56"/>
         <v>17100</v>
       </c>
-      <c r="I312" s="93">
-        <f>SUBTOTAL(9,I301:I311)</f>
+      <c r="I312" s="88">
+        <f t="shared" si="56"/>
         <v>102000</v>
       </c>
-      <c r="J312" s="93">
-        <f>SUBTOTAL(9,J301:J311)</f>
+      <c r="J312" s="88">
+        <f t="shared" si="56"/>
         <v>50</v>
       </c>
-      <c r="K312" s="93">
-        <f>SUBTOTAL(9,K301:K311)</f>
+      <c r="K312" s="88">
+        <f t="shared" si="56"/>
         <v>7720</v>
       </c>
-      <c r="L312" s="93">
-        <f>SUBTOTAL(9,L301:L311)</f>
+      <c r="L312" s="88">
+        <f t="shared" si="56"/>
         <v>19360</v>
       </c>
-      <c r="M312" s="93">
-        <f>SUBTOTAL(9,M301:M311)</f>
+      <c r="M312" s="88">
+        <f t="shared" si="56"/>
         <v>27</v>
       </c>
       <c r="N312" s="18">
-        <f>SUBTOTAL(9,N301:N311)</f>
+        <f t="shared" si="56"/>
         <v>632.33333333333348</v>
       </c>
       <c r="O312" s="49"/>
@@ -16171,7 +16222,7 @@
         <v>5</v>
       </c>
       <c r="N313" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>55.833333333333336</v>
       </c>
     </row>
@@ -16216,7 +16267,7 @@
         <v>4</v>
       </c>
       <c r="N314" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>52.833333333333336</v>
       </c>
     </row>
@@ -16261,7 +16312,7 @@
         <v>3</v>
       </c>
       <c r="N315" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>69.833333333333329</v>
       </c>
     </row>
@@ -16306,7 +16357,7 @@
         <v>2</v>
       </c>
       <c r="N316" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="46"/>
         <v>43.333333333333336</v>
       </c>
     </row>
@@ -16351,7 +16402,7 @@
         <v>4</v>
       </c>
       <c r="N317" s="14">
-        <f t="shared" ref="N317:N336" si="9">SUM((E317*500)/30)</f>
+        <f t="shared" ref="N317:N336" si="57">SUM((E317*500)/30)</f>
         <v>69.166666666666671</v>
       </c>
     </row>
@@ -16396,7 +16447,7 @@
         <v>2</v>
       </c>
       <c r="N318" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>70.5</v>
       </c>
     </row>
@@ -16441,7 +16492,7 @@
         <v>8</v>
       </c>
       <c r="N319" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>69.166666666666671</v>
       </c>
     </row>
@@ -16486,7 +16537,7 @@
         <v>3</v>
       </c>
       <c r="N320" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>74</v>
       </c>
     </row>
@@ -16531,7 +16582,7 @@
         <v>2</v>
       </c>
       <c r="N321" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>52</v>
       </c>
     </row>
@@ -16576,7 +16627,7 @@
         <v>2</v>
       </c>
       <c r="N322" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>16</v>
       </c>
     </row>
@@ -16588,43 +16639,43 @@
       <c r="C323" s="16"/>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
-        <f>SUBTOTAL(9,E313:E322)</f>
+        <f t="shared" ref="E323:N323" si="58">SUBTOTAL(9,E313:E322)</f>
         <v>34.360000000000007</v>
       </c>
       <c r="F323" s="16">
-        <f>SUBTOTAL(9,F313:F322)</f>
+        <f t="shared" si="58"/>
         <v>150</v>
       </c>
       <c r="G323" s="16">
-        <f>SUBTOTAL(9,G313:G322)</f>
+        <f t="shared" si="58"/>
         <v>13780</v>
       </c>
       <c r="H323" s="16">
-        <f>SUBTOTAL(9,H313:H322)</f>
+        <f t="shared" si="58"/>
         <v>15550</v>
       </c>
       <c r="I323" s="16">
-        <f>SUBTOTAL(9,I313:I322)</f>
+        <f t="shared" si="58"/>
         <v>101000</v>
       </c>
       <c r="J323" s="16">
-        <f>SUBTOTAL(9,J313:J322)</f>
+        <f t="shared" si="58"/>
         <v>52</v>
       </c>
       <c r="K323" s="16">
-        <f>SUBTOTAL(9,K313:K322)</f>
+        <f t="shared" si="58"/>
         <v>8600</v>
       </c>
       <c r="L323" s="16">
-        <f>SUBTOTAL(9,L313:L322)</f>
+        <f t="shared" si="58"/>
         <v>13800</v>
       </c>
       <c r="M323" s="16">
-        <f>SUBTOTAL(9,M313:M322)</f>
+        <f t="shared" si="58"/>
         <v>35</v>
       </c>
       <c r="N323" s="18">
-        <f>SUBTOTAL(9,N313:N322)</f>
+        <f t="shared" si="58"/>
         <v>572.66666666666674</v>
       </c>
       <c r="O323" s="49"/>
@@ -16670,7 +16721,7 @@
         <v>3</v>
       </c>
       <c r="N324" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>49.833333333333336</v>
       </c>
     </row>
@@ -16715,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="N325" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>58.166666666666664</v>
       </c>
     </row>
@@ -16760,7 +16811,7 @@
         <v>5</v>
       </c>
       <c r="N326" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>73.166666666666671</v>
       </c>
     </row>
@@ -16805,7 +16856,7 @@
         <v>3</v>
       </c>
       <c r="N327" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>59.5</v>
       </c>
     </row>
@@ -16850,7 +16901,7 @@
         <v>1</v>
       </c>
       <c r="N328" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>63.166666666666664</v>
       </c>
     </row>
@@ -16895,7 +16946,7 @@
         <v>2</v>
       </c>
       <c r="N329" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>70.666666666666671</v>
       </c>
     </row>
@@ -16940,7 +16991,7 @@
         <v>7</v>
       </c>
       <c r="N330" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>58.166666666666664</v>
       </c>
     </row>
@@ -16985,7 +17036,7 @@
         <v>4</v>
       </c>
       <c r="N331" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>69.333333333333329</v>
       </c>
     </row>
@@ -17030,7 +17081,7 @@
         <v>5</v>
       </c>
       <c r="N332" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>52.833333333333336</v>
       </c>
     </row>
@@ -17075,7 +17126,7 @@
         <v>1</v>
       </c>
       <c r="N333" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>55.166666666666664</v>
       </c>
     </row>
@@ -17120,7 +17171,7 @@
         <v>7</v>
       </c>
       <c r="N334" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>55.333333333333336</v>
       </c>
     </row>
@@ -17165,7 +17216,7 @@
         <v>2</v>
       </c>
       <c r="N335" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>66.333333333333329</v>
       </c>
     </row>
@@ -17210,7 +17261,7 @@
         <v>3</v>
       </c>
       <c r="N336" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="57"/>
         <v>64</v>
       </c>
     </row>
@@ -17222,95 +17273,95 @@
       <c r="C337" s="16"/>
       <c r="D337" s="17"/>
       <c r="E337" s="16">
-        <f>SUBTOTAL(9,E324:E336)</f>
+        <f t="shared" ref="E337:N337" si="59">SUBTOTAL(9,E324:E336)</f>
         <v>47.739999999999995</v>
       </c>
       <c r="F337" s="16">
-        <f>SUBTOTAL(9,F324:F336)</f>
+        <f t="shared" si="59"/>
         <v>195</v>
       </c>
       <c r="G337" s="16">
-        <f>SUBTOTAL(9,G324:G336)</f>
+        <f t="shared" si="59"/>
         <v>11570</v>
       </c>
       <c r="H337" s="16">
-        <f>SUBTOTAL(9,H324:H336)</f>
+        <f t="shared" si="59"/>
         <v>10970</v>
       </c>
       <c r="I337" s="16">
-        <f>SUBTOTAL(9,I324:I336)</f>
+        <f t="shared" si="59"/>
         <v>97000</v>
       </c>
       <c r="J337" s="16">
-        <f>SUBTOTAL(9,J324:J336)</f>
+        <f t="shared" si="59"/>
         <v>69</v>
       </c>
       <c r="K337" s="16">
-        <f>SUBTOTAL(9,K324:K336)</f>
+        <f t="shared" si="59"/>
         <v>5470</v>
       </c>
       <c r="L337" s="16">
-        <f>SUBTOTAL(9,L324:L336)</f>
+        <f t="shared" si="59"/>
         <v>10940</v>
       </c>
       <c r="M337" s="16">
-        <f>SUBTOTAL(9,M324:M336)</f>
+        <f t="shared" si="59"/>
         <v>44</v>
       </c>
       <c r="N337" s="18">
-        <f>SUBTOTAL(9,N324:N336)</f>
+        <f t="shared" si="59"/>
         <v>795.66666666666674</v>
       </c>
       <c r="O337" s="49"/>
     </row>
     <row r="338" spans="1:15" s="55" customFormat="1">
-      <c r="A338" s="95"/>
-      <c r="B338" s="95" t="s">
+      <c r="A338" s="90"/>
+      <c r="B338" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C338" s="95"/>
-      <c r="D338" s="96"/>
-      <c r="E338" s="95">
-        <f>SUBTOTAL(9,E3:E336)</f>
+      <c r="C338" s="90"/>
+      <c r="D338" s="91"/>
+      <c r="E338" s="90">
+        <f t="shared" ref="E338:N338" si="60">SUBTOTAL(9,E3:E336)</f>
         <v>934.94</v>
       </c>
-      <c r="F338" s="95">
-        <f>SUBTOTAL(9,F3:F336)</f>
+      <c r="F338" s="90">
+        <f t="shared" si="60"/>
         <v>4439</v>
       </c>
-      <c r="G338" s="95">
-        <f>SUBTOTAL(9,G3:G336)</f>
+      <c r="G338" s="90">
+        <f t="shared" si="60"/>
         <v>561180</v>
       </c>
-      <c r="H338" s="95">
-        <f>SUBTOTAL(9,H3:H336)</f>
+      <c r="H338" s="90">
+        <f t="shared" si="60"/>
         <v>661437</v>
       </c>
-      <c r="I338" s="95">
-        <f>SUBTOTAL(9,I3:I336)</f>
+      <c r="I338" s="90">
+        <f t="shared" si="60"/>
         <v>10289600</v>
       </c>
-      <c r="J338" s="95">
-        <f>SUBTOTAL(9,J3:J336)</f>
+      <c r="J338" s="90">
+        <f t="shared" si="60"/>
         <v>7975</v>
       </c>
-      <c r="K338" s="95">
-        <f>SUBTOTAL(9,K3:K336)</f>
+      <c r="K338" s="90">
+        <f t="shared" si="60"/>
         <v>404377</v>
       </c>
-      <c r="L338" s="95">
-        <f>SUBTOTAL(9,L3:L336)</f>
+      <c r="L338" s="90">
+        <f t="shared" si="60"/>
         <v>547359</v>
       </c>
-      <c r="M338" s="95">
-        <f>SUBTOTAL(9,M3:M336)</f>
+      <c r="M338" s="90">
+        <f t="shared" si="60"/>
         <v>3608.6</v>
       </c>
-      <c r="N338" s="97">
-        <f>SUBTOTAL(9,N3:N336)</f>
+      <c r="N338" s="92">
+        <f t="shared" si="60"/>
         <v>11950.666666666664</v>
       </c>
-      <c r="O338" s="80"/>
+      <c r="O338" s="79"/>
     </row>
     <row r="339" spans="1:15">
       <c r="C339" s="48"/>
@@ -17332,7 +17383,7 @@
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
-  <sortState ref="A3:O186">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O186">
     <sortCondition ref="D3:D186"/>
   </sortState>
   <mergeCells count="1">
@@ -17352,8 +17403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -17373,20 +17424,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="145" customHeight="1">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:15" s="59" customFormat="1">
       <c r="A2" s="26" t="s">
@@ -17524,51 +17575,51 @@
         <v>26.333333333333332</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="59" customFormat="1" outlineLevel="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:15" s="99" customFormat="1" outlineLevel="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16">
-        <f>SUBTOTAL(9,E3:E4)</f>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="94">
+        <f t="shared" ref="E5:N5" si="0">SUBTOTAL(9,E3:E4)</f>
         <v>3.37</v>
       </c>
-      <c r="F5" s="16">
-        <f>SUBTOTAL(9,F3:F4)</f>
+      <c r="F5" s="94">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G5" s="16">
-        <f>SUBTOTAL(9,G3:G4)</f>
+      <c r="G5" s="94">
+        <f t="shared" si="0"/>
         <v>11490</v>
       </c>
-      <c r="H5" s="16">
-        <f>SUBTOTAL(9,H3:H4)</f>
+      <c r="H5" s="94">
+        <f t="shared" si="0"/>
         <v>17310</v>
       </c>
-      <c r="I5" s="16">
-        <f>SUBTOTAL(9,I3:I4)</f>
+      <c r="I5" s="94">
+        <f t="shared" si="0"/>
         <v>37300</v>
       </c>
-      <c r="J5" s="16">
-        <f>SUBTOTAL(9,J3:J4)</f>
+      <c r="J5" s="94">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K5" s="16">
-        <f>SUBTOTAL(9,K3:K4)</f>
+      <c r="K5" s="94">
+        <f t="shared" si="0"/>
         <v>8730</v>
       </c>
-      <c r="L5" s="16">
-        <f>SUBTOTAL(9,L3:L4)</f>
+      <c r="L5" s="94">
+        <f t="shared" si="0"/>
         <v>32300</v>
       </c>
-      <c r="M5" s="16">
-        <f>SUBTOTAL(9,M3:M4)</f>
+      <c r="M5" s="94">
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="N5" s="18">
-        <f>SUBTOTAL(9,N3:N4)</f>
+      <c r="N5" s="98">
+        <f t="shared" si="0"/>
         <v>56.166666666666664</v>
       </c>
     </row>
@@ -17613,7 +17664,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6:N16" si="0">SUM((E6*500)/30)</f>
+        <f t="shared" ref="N6:N16" si="1">SUM((E6*500)/30)</f>
         <v>38.666666666666664</v>
       </c>
     </row>
@@ -17658,7 +17709,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
@@ -17703,55 +17754,55 @@
         <v>0</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.166666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="59" customFormat="1" outlineLevel="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:15" s="99" customFormat="1" outlineLevel="1">
+      <c r="A9" s="94"/>
+      <c r="B9" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16">
-        <f>SUBTOTAL(9,E6:E8)</f>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="94">
+        <f t="shared" ref="E9:N9" si="2">SUBTOTAL(9,E6:E8)</f>
         <v>7.49</v>
       </c>
-      <c r="F9" s="16">
-        <f>SUBTOTAL(9,F6:F8)</f>
+      <c r="F9" s="94">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="G9" s="16">
-        <f>SUBTOTAL(9,G6:G8)</f>
+      <c r="G9" s="94">
+        <f t="shared" si="2"/>
         <v>24770</v>
       </c>
-      <c r="H9" s="16">
-        <f>SUBTOTAL(9,H6:H8)</f>
+      <c r="H9" s="94">
+        <f t="shared" si="2"/>
         <v>20190</v>
       </c>
-      <c r="I9" s="16">
-        <f>SUBTOTAL(9,I6:I8)</f>
+      <c r="I9" s="94">
+        <f t="shared" si="2"/>
         <v>41000</v>
       </c>
-      <c r="J9" s="16">
-        <f>SUBTOTAL(9,J6:J8)</f>
+      <c r="J9" s="94">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="K9" s="16">
-        <f>SUBTOTAL(9,K6:K8)</f>
+      <c r="K9" s="94">
+        <f t="shared" si="2"/>
         <v>19750</v>
       </c>
-      <c r="L9" s="16">
-        <f>SUBTOTAL(9,L6:L8)</f>
+      <c r="L9" s="94">
+        <f t="shared" si="2"/>
         <v>38770</v>
       </c>
-      <c r="M9" s="16">
-        <f>SUBTOTAL(9,M6:M8)</f>
+      <c r="M9" s="94">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="18">
-        <f>SUBTOTAL(9,N6:N8)</f>
+      <c r="N9" s="98">
+        <f t="shared" si="2"/>
         <v>124.83333333333333</v>
       </c>
     </row>
@@ -17796,55 +17847,55 @@
         <v>0</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="59" customFormat="1" outlineLevel="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:15" s="99" customFormat="1" outlineLevel="1">
+      <c r="A11" s="94"/>
+      <c r="B11" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16">
-        <f>SUBTOTAL(9,E10:E10)</f>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="94">
+        <f t="shared" ref="E11:N11" si="3">SUBTOTAL(9,E10:E10)</f>
         <v>1.71</v>
       </c>
-      <c r="F11" s="16">
-        <f>SUBTOTAL(9,F10:F10)</f>
-        <v>15</v>
-      </c>
-      <c r="G11" s="16">
-        <f>SUBTOTAL(9,G10:G10)</f>
+      <c r="F11" s="94">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="94">
+        <f t="shared" si="3"/>
         <v>8210</v>
       </c>
-      <c r="H11" s="16">
-        <f>SUBTOTAL(9,H10:H10)</f>
+      <c r="H11" s="94">
+        <f t="shared" si="3"/>
         <v>10340</v>
       </c>
-      <c r="I11" s="16">
-        <f>SUBTOTAL(9,I10:I10)</f>
+      <c r="I11" s="94">
+        <f t="shared" si="3"/>
         <v>14000</v>
       </c>
-      <c r="J11" s="16">
-        <f>SUBTOTAL(9,J10:J10)</f>
+      <c r="J11" s="94">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="K11" s="16">
-        <f>SUBTOTAL(9,K10:K10)</f>
+      <c r="K11" s="94">
+        <f t="shared" si="3"/>
         <v>9560</v>
       </c>
-      <c r="L11" s="16">
-        <f>SUBTOTAL(9,L10:L10)</f>
+      <c r="L11" s="94">
+        <f t="shared" si="3"/>
         <v>13470</v>
       </c>
-      <c r="M11" s="16">
-        <f>SUBTOTAL(9,M10:M10)</f>
+      <c r="M11" s="94">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="18">
-        <f>SUBTOTAL(9,N10:N10)</f>
+      <c r="N11" s="98">
+        <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
     </row>
@@ -17889,7 +17940,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.333333333333332</v>
       </c>
     </row>
@@ -17934,55 +17985,55 @@
         <v>0</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="59" customFormat="1" outlineLevel="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="1:15" s="99" customFormat="1" outlineLevel="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16">
-        <f>SUBTOTAL(9,E12:E13)</f>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="94">
+        <f t="shared" ref="E14:N14" si="4">SUBTOTAL(9,E12:E13)</f>
         <v>4.1900000000000004</v>
       </c>
-      <c r="F14" s="16">
-        <f>SUBTOTAL(9,F12:F13)</f>
+      <c r="F14" s="94">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="G14" s="16">
-        <f>SUBTOTAL(9,G12:G13)</f>
+      <c r="G14" s="94">
+        <f t="shared" si="4"/>
         <v>19070</v>
       </c>
-      <c r="H14" s="16">
-        <f>SUBTOTAL(9,H12:H13)</f>
+      <c r="H14" s="94">
+        <f t="shared" si="4"/>
         <v>19780</v>
       </c>
-      <c r="I14" s="16">
-        <f>SUBTOTAL(9,I12:I13)</f>
+      <c r="I14" s="94">
+        <f t="shared" si="4"/>
         <v>32000</v>
       </c>
-      <c r="J14" s="16">
-        <f>SUBTOTAL(9,J12:J13)</f>
+      <c r="J14" s="94">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="K14" s="16">
-        <f>SUBTOTAL(9,K12:K13)</f>
+      <c r="K14" s="94">
+        <f t="shared" si="4"/>
         <v>21470</v>
       </c>
-      <c r="L14" s="16">
-        <f>SUBTOTAL(9,L12:L13)</f>
+      <c r="L14" s="94">
+        <f t="shared" si="4"/>
         <v>33290</v>
       </c>
-      <c r="M14" s="16">
-        <f>SUBTOTAL(9,M12:M13)</f>
+      <c r="M14" s="94">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N14" s="18">
-        <f>SUBTOTAL(9,N12:N13)</f>
+      <c r="N14" s="98">
+        <f t="shared" si="4"/>
         <v>69.833333333333329</v>
       </c>
     </row>
@@ -18027,7 +18078,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
@@ -18072,55 +18123,55 @@
         <v>0</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="50" customFormat="1" outlineLevel="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="1:14" s="100" customFormat="1" outlineLevel="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16">
-        <f>SUBTOTAL(9,E15:E16)</f>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="94">
+        <f t="shared" ref="E17:N17" si="5">SUBTOTAL(9,E15:E16)</f>
         <v>5.42</v>
       </c>
-      <c r="F17" s="16">
-        <f>SUBTOTAL(9,F15:F16)</f>
+      <c r="F17" s="94">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="G17" s="16">
-        <f>SUBTOTAL(9,G15:G16)</f>
+      <c r="G17" s="94">
+        <f t="shared" si="5"/>
         <v>17770</v>
       </c>
-      <c r="H17" s="16">
-        <f>SUBTOTAL(9,H15:H16)</f>
+      <c r="H17" s="94">
+        <f t="shared" si="5"/>
         <v>16610</v>
       </c>
-      <c r="I17" s="16">
-        <f>SUBTOTAL(9,I15:I16)</f>
+      <c r="I17" s="94">
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="J17" s="16">
-        <f>SUBTOTAL(9,J15:J16)</f>
+      <c r="J17" s="94">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="K17" s="16">
-        <f>SUBTOTAL(9,K15:K16)</f>
+      <c r="K17" s="94">
+        <f t="shared" si="5"/>
         <v>25790</v>
       </c>
-      <c r="L17" s="16">
-        <f>SUBTOTAL(9,L15:L16)</f>
+      <c r="L17" s="94">
+        <f t="shared" si="5"/>
         <v>33800</v>
       </c>
-      <c r="M17" s="16">
-        <f>SUBTOTAL(9,M15:M16)</f>
+      <c r="M17" s="94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N17" s="18">
-        <f>SUBTOTAL(9,N15:N16)</f>
+      <c r="N17" s="98">
+        <f t="shared" si="5"/>
         <v>90.333333333333343</v>
       </c>
     </row>
@@ -18169,51 +18220,51 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="50" customFormat="1" outlineLevel="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:14" s="100" customFormat="1" outlineLevel="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16">
-        <f>SUBTOTAL(9,E18:E18)</f>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="94">
+        <f t="shared" ref="E19:N19" si="6">SUBTOTAL(9,E18:E18)</f>
         <v>2.34</v>
       </c>
-      <c r="F19" s="16">
-        <f>SUBTOTAL(9,F18:F18)</f>
-        <v>15</v>
-      </c>
-      <c r="G19" s="16">
-        <f>SUBTOTAL(9,G18:G18)</f>
+      <c r="F19" s="94">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="94">
+        <f t="shared" si="6"/>
         <v>7540</v>
       </c>
-      <c r="H19" s="16">
-        <f>SUBTOTAL(9,H18:H18)</f>
+      <c r="H19" s="94">
+        <f t="shared" si="6"/>
         <v>8260</v>
       </c>
-      <c r="I19" s="16">
-        <f>SUBTOTAL(9,I18:I18)</f>
+      <c r="I19" s="94">
+        <f t="shared" si="6"/>
         <v>14000</v>
       </c>
-      <c r="J19" s="16">
-        <f>SUBTOTAL(9,J18:J18)</f>
+      <c r="J19" s="94">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="K19" s="16">
-        <f>SUBTOTAL(9,K18:K18)</f>
+      <c r="K19" s="94">
+        <f t="shared" si="6"/>
         <v>10320</v>
       </c>
-      <c r="L19" s="16">
-        <f>SUBTOTAL(9,L18:L18)</f>
+      <c r="L19" s="94">
+        <f t="shared" si="6"/>
         <v>15430</v>
       </c>
-      <c r="M19" s="16">
-        <f>SUBTOTAL(9,M18:M18)</f>
+      <c r="M19" s="94">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N19" s="18">
-        <f>SUBTOTAL(9,N18:N18)</f>
+      <c r="N19" s="98">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
@@ -18258,7 +18309,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" ref="N20:N52" si="1">SUM((E20*500)/30)</f>
+        <f t="shared" ref="N20:N52" si="7">SUM((E20*500)/30)</f>
         <v>27.166666666666668</v>
       </c>
     </row>
@@ -18303,7 +18354,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>39.5</v>
       </c>
     </row>
@@ -18348,55 +18399,55 @@
         <v>0</v>
       </c>
       <c r="N22" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>28.166666666666668</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="50" customFormat="1" outlineLevel="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91" t="s">
+    <row r="23" spans="1:14" s="100" customFormat="1" outlineLevel="1">
+      <c r="A23" s="101"/>
+      <c r="B23" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="91">
-        <f>SUBTOTAL(9,E20:E22)</f>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="101">
+        <f t="shared" ref="E23:N23" si="8">SUBTOTAL(9,E20:E22)</f>
         <v>5.6899999999999995</v>
       </c>
-      <c r="F23" s="91">
-        <f>SUBTOTAL(9,F20:F22)</f>
+      <c r="F23" s="101">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="G23" s="91">
-        <f>SUBTOTAL(9,G20:G22)</f>
+      <c r="G23" s="101">
+        <f t="shared" si="8"/>
         <v>26060</v>
       </c>
-      <c r="H23" s="91">
-        <f>SUBTOTAL(9,H20:H22)</f>
+      <c r="H23" s="101">
+        <f t="shared" si="8"/>
         <v>25360</v>
       </c>
-      <c r="I23" s="91">
-        <f>SUBTOTAL(9,I20:I22)</f>
+      <c r="I23" s="101">
+        <f t="shared" si="8"/>
         <v>47000</v>
       </c>
-      <c r="J23" s="91">
-        <f>SUBTOTAL(9,J20:J22)</f>
+      <c r="J23" s="101">
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="K23" s="91">
-        <f>SUBTOTAL(9,K20:K22)</f>
+      <c r="K23" s="101">
+        <f t="shared" si="8"/>
         <v>31810</v>
       </c>
-      <c r="L23" s="91">
-        <f>SUBTOTAL(9,L20:L22)</f>
+      <c r="L23" s="101">
+        <f t="shared" si="8"/>
         <v>38000</v>
       </c>
-      <c r="M23" s="91">
-        <f>SUBTOTAL(9,M20:M22)</f>
+      <c r="M23" s="101">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N23" s="89">
-        <f>SUBTOTAL(9,N20:N22)</f>
+      <c r="N23" s="104">
+        <f t="shared" si="8"/>
         <v>94.833333333333343</v>
       </c>
     </row>
@@ -18441,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>48.833333333333336</v>
       </c>
     </row>
@@ -18486,55 +18537,55 @@
         <v>0</v>
       </c>
       <c r="N25" s="68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.166666666666668</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="50" customFormat="1" outlineLevel="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91" t="s">
+    <row r="26" spans="1:14" s="100" customFormat="1" outlineLevel="1">
+      <c r="A26" s="101"/>
+      <c r="B26" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91">
-        <f>SUBTOTAL(9,E24:E25)</f>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="101">
+        <f t="shared" ref="E26:N26" si="9">SUBTOTAL(9,E24:E25)</f>
         <v>4.1400000000000006</v>
       </c>
-      <c r="F26" s="91">
-        <f>SUBTOTAL(9,F24:F25)</f>
+      <c r="F26" s="101">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="G26" s="91">
-        <f>SUBTOTAL(9,G24:G25)</f>
+      <c r="G26" s="101">
+        <f t="shared" si="9"/>
         <v>16290</v>
       </c>
-      <c r="H26" s="91">
-        <f>SUBTOTAL(9,H24:H25)</f>
+      <c r="H26" s="101">
+        <f t="shared" si="9"/>
         <v>15810</v>
       </c>
-      <c r="I26" s="91">
-        <f>SUBTOTAL(9,I24:I25)</f>
+      <c r="I26" s="101">
+        <f t="shared" si="9"/>
         <v>36000</v>
       </c>
-      <c r="J26" s="91">
-        <f>SUBTOTAL(9,J24:J25)</f>
+      <c r="J26" s="101">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="K26" s="91">
-        <f>SUBTOTAL(9,K24:K25)</f>
+      <c r="K26" s="101">
+        <f t="shared" si="9"/>
         <v>21310</v>
       </c>
-      <c r="L26" s="91">
-        <f>SUBTOTAL(9,L24:L25)</f>
+      <c r="L26" s="101">
+        <f t="shared" si="9"/>
         <v>29700</v>
       </c>
-      <c r="M26" s="91">
-        <f>SUBTOTAL(9,M24:M25)</f>
+      <c r="M26" s="101">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N26" s="89">
-        <f>SUBTOTAL(9,N24:N25)</f>
+      <c r="N26" s="104">
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
     </row>
@@ -18579,55 +18630,55 @@
         <v>0</v>
       </c>
       <c r="N27" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>24.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="52" customFormat="1" outlineLevel="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="91" t="s">
+    <row r="28" spans="1:14" s="108" customFormat="1" outlineLevel="1">
+      <c r="A28" s="105"/>
+      <c r="B28" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="69">
-        <f>SUBTOTAL(9,E27:E27)</f>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="105">
+        <f t="shared" ref="E28:N28" si="10">SUBTOTAL(9,E27:E27)</f>
         <v>1.47</v>
       </c>
-      <c r="F28" s="65">
-        <f>SUBTOTAL(9,F27:F27)</f>
-        <v>15</v>
-      </c>
-      <c r="G28" s="65">
-        <f>SUBTOTAL(9,G27:G27)</f>
+      <c r="F28" s="107">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G28" s="107">
+        <f t="shared" si="10"/>
         <v>8250</v>
       </c>
-      <c r="H28" s="65">
-        <f>SUBTOTAL(9,H27:H27)</f>
+      <c r="H28" s="107">
+        <f t="shared" si="10"/>
         <v>7860</v>
       </c>
-      <c r="I28" s="65">
-        <f>SUBTOTAL(9,I27:I27)</f>
+      <c r="I28" s="107">
+        <f t="shared" si="10"/>
         <v>14000</v>
       </c>
-      <c r="J28" s="65">
-        <f>SUBTOTAL(9,J27:J27)</f>
+      <c r="J28" s="107">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="K28" s="65">
-        <f>SUBTOTAL(9,K27:K27)</f>
+      <c r="K28" s="107">
+        <f t="shared" si="10"/>
         <v>8940</v>
       </c>
-      <c r="L28" s="65">
-        <f>SUBTOTAL(9,L27:L27)</f>
+      <c r="L28" s="107">
+        <f t="shared" si="10"/>
         <v>12500</v>
       </c>
-      <c r="M28" s="65">
-        <f>SUBTOTAL(9,M27:M27)</f>
+      <c r="M28" s="107">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N28" s="69">
-        <f>SUBTOTAL(9,N27:N27)</f>
+      <c r="N28" s="105">
+        <f t="shared" si="10"/>
         <v>24.5</v>
       </c>
     </row>
@@ -18672,55 +18723,55 @@
         <v>7</v>
       </c>
       <c r="N29" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="50" customFormat="1" outlineLevel="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91" t="s">
+    <row r="30" spans="1:14" s="100" customFormat="1" outlineLevel="1">
+      <c r="A30" s="101"/>
+      <c r="B30" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91">
-        <f>SUBTOTAL(9,E29:E29)</f>
+      <c r="C30" s="101"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="101">
+        <f t="shared" ref="E30:N30" si="11">SUBTOTAL(9,E29:E29)</f>
         <v>0.75</v>
       </c>
-      <c r="F30" s="91">
-        <f>SUBTOTAL(9,F29:F29)</f>
-        <v>15</v>
-      </c>
-      <c r="G30" s="91">
-        <f>SUBTOTAL(9,G29:G29)</f>
+      <c r="F30" s="101">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G30" s="101">
+        <f t="shared" si="11"/>
         <v>8472</v>
       </c>
-      <c r="H30" s="91">
-        <f>SUBTOTAL(9,H29:H29)</f>
+      <c r="H30" s="101">
+        <f t="shared" si="11"/>
         <v>11528</v>
       </c>
-      <c r="I30" s="89">
-        <f>SUBTOTAL(9,I29:I29)</f>
+      <c r="I30" s="104">
+        <f t="shared" si="11"/>
         <v>33320</v>
       </c>
-      <c r="J30" s="91">
-        <f>SUBTOTAL(9,J29:J29)</f>
+      <c r="J30" s="101">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K30" s="91">
-        <f>SUBTOTAL(9,K29:K29)</f>
+      <c r="K30" s="101">
+        <f t="shared" si="11"/>
         <v>656</v>
       </c>
-      <c r="L30" s="91">
-        <f>SUBTOTAL(9,L29:L29)</f>
+      <c r="L30" s="101">
+        <f t="shared" si="11"/>
         <v>5392</v>
       </c>
-      <c r="M30" s="91">
-        <f>SUBTOTAL(9,M29:M29)</f>
+      <c r="M30" s="101">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="N30" s="91">
-        <f>SUBTOTAL(9,N29:N29)</f>
+      <c r="N30" s="101">
+        <f t="shared" si="11"/>
         <v>12.5</v>
       </c>
     </row>
@@ -18765,55 +18816,55 @@
         <v>0</v>
       </c>
       <c r="N31" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>16.5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="50" customFormat="1" outlineLevel="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91" t="s">
+    <row r="32" spans="1:14" s="100" customFormat="1" outlineLevel="1">
+      <c r="A32" s="101"/>
+      <c r="B32" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91">
-        <f>SUBTOTAL(9,E31:E31)</f>
+      <c r="C32" s="101"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="101">
+        <f t="shared" ref="E32:N32" si="12">SUBTOTAL(9,E31:E31)</f>
         <v>0.99</v>
       </c>
-      <c r="F32" s="91">
-        <f>SUBTOTAL(9,F31:F31)</f>
-        <v>15</v>
-      </c>
-      <c r="G32" s="91">
-        <f>SUBTOTAL(9,G31:G31)</f>
+      <c r="F32" s="101">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="G32" s="101">
+        <f t="shared" si="12"/>
         <v>7530</v>
       </c>
-      <c r="H32" s="91">
-        <f>SUBTOTAL(9,H31:H31)</f>
+      <c r="H32" s="101">
+        <f t="shared" si="12"/>
         <v>9240</v>
       </c>
-      <c r="I32" s="91">
-        <f>SUBTOTAL(9,I31:I31)</f>
+      <c r="I32" s="101">
+        <f t="shared" si="12"/>
         <v>22400</v>
       </c>
-      <c r="J32" s="91">
-        <f>SUBTOTAL(9,J31:J31)</f>
+      <c r="J32" s="101">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="K32" s="91">
-        <f>SUBTOTAL(9,K31:K31)</f>
+      <c r="K32" s="101">
+        <f t="shared" si="12"/>
         <v>940</v>
       </c>
-      <c r="L32" s="91">
-        <f>SUBTOTAL(9,L31:L31)</f>
+      <c r="L32" s="101">
+        <f t="shared" si="12"/>
         <v>7650</v>
       </c>
-      <c r="M32" s="91">
-        <f>SUBTOTAL(9,M31:M31)</f>
+      <c r="M32" s="101">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N32" s="91">
-        <f>SUBTOTAL(9,N31:N31)</f>
+      <c r="N32" s="101">
+        <f t="shared" si="12"/>
         <v>16.5</v>
       </c>
     </row>
@@ -18858,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>26.333333333333332</v>
       </c>
     </row>
@@ -18903,55 +18954,55 @@
         <v>0</v>
       </c>
       <c r="N34" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A35" s="91"/>
-      <c r="B35" s="16" t="s">
+    <row r="35" spans="1:15" s="100" customFormat="1" outlineLevel="1">
+      <c r="A35" s="101"/>
+      <c r="B35" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="91">
-        <f>SUBTOTAL(9,E33:E34)</f>
+      <c r="C35" s="101"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="101">
+        <f t="shared" ref="E35:N35" si="13">SUBTOTAL(9,E33:E34)</f>
         <v>2.81</v>
       </c>
-      <c r="F35" s="91">
-        <f>SUBTOTAL(9,F33:F34)</f>
+      <c r="F35" s="101">
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="G35" s="91">
-        <f>SUBTOTAL(9,G33:G34)</f>
+      <c r="G35" s="101">
+        <f t="shared" si="13"/>
         <v>4550</v>
       </c>
-      <c r="H35" s="91">
-        <f>SUBTOTAL(9,H33:H34)</f>
+      <c r="H35" s="101">
+        <f t="shared" si="13"/>
         <v>7340</v>
       </c>
-      <c r="I35" s="91">
-        <f>SUBTOTAL(9,I33:I34)</f>
+      <c r="I35" s="101">
+        <f t="shared" si="13"/>
         <v>45000</v>
       </c>
-      <c r="J35" s="91">
-        <f>SUBTOTAL(9,J33:J34)</f>
+      <c r="J35" s="101">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="K35" s="91">
-        <f>SUBTOTAL(9,K33:K34)</f>
+      <c r="K35" s="101">
+        <f t="shared" si="13"/>
         <v>3620</v>
       </c>
-      <c r="L35" s="91">
-        <f>SUBTOTAL(9,L33:L34)</f>
+      <c r="L35" s="101">
+        <f t="shared" si="13"/>
         <v>33200</v>
       </c>
-      <c r="M35" s="16">
-        <f>SUBTOTAL(9,M33:M34)</f>
+      <c r="M35" s="94">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N35" s="98">
-        <f>SUBTOTAL(9,N33:N34)</f>
+      <c r="N35" s="109">
+        <f t="shared" si="13"/>
         <v>46.833333333333329</v>
       </c>
     </row>
@@ -18996,55 +19047,55 @@
         <v>0</v>
       </c>
       <c r="N36" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>38.666666666666664</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="16" t="s">
+    <row r="37" spans="1:15" s="100" customFormat="1" outlineLevel="1">
+      <c r="A37" s="101"/>
+      <c r="B37" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="91">
-        <f>SUBTOTAL(9,E36:E36)</f>
+      <c r="C37" s="101"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="101">
+        <f t="shared" ref="E37:N37" si="14">SUBTOTAL(9,E36:E36)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="F37" s="91">
-        <f>SUBTOTAL(9,F36:F36)</f>
-        <v>15</v>
-      </c>
-      <c r="G37" s="91">
-        <f>SUBTOTAL(9,G36:G36)</f>
+      <c r="F37" s="101">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="G37" s="101">
+        <f t="shared" si="14"/>
         <v>2670</v>
       </c>
-      <c r="H37" s="91">
-        <f>SUBTOTAL(9,H36:H36)</f>
+      <c r="H37" s="101">
+        <f t="shared" si="14"/>
         <v>3750</v>
       </c>
-      <c r="I37" s="91">
-        <f>SUBTOTAL(9,I36:I36)</f>
+      <c r="I37" s="101">
+        <f t="shared" si="14"/>
         <v>26000</v>
       </c>
-      <c r="J37" s="91">
-        <f>SUBTOTAL(9,J36:J36)</f>
+      <c r="J37" s="101">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="K37" s="91">
-        <f>SUBTOTAL(9,K36:K36)</f>
+      <c r="K37" s="101">
+        <f t="shared" si="14"/>
         <v>1890</v>
       </c>
-      <c r="L37" s="91">
-        <f>SUBTOTAL(9,L36:L36)</f>
+      <c r="L37" s="101">
+        <f t="shared" si="14"/>
         <v>20100</v>
       </c>
-      <c r="M37" s="16">
-        <f>SUBTOTAL(9,M36:M36)</f>
+      <c r="M37" s="94">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N37" s="98">
-        <f>SUBTOTAL(9,N36:N36)</f>
+      <c r="N37" s="109">
+        <f t="shared" si="14"/>
         <v>38.666666666666664</v>
       </c>
     </row>
@@ -19089,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>28.833333333333332</v>
       </c>
     </row>
@@ -19134,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>29.666666666666668</v>
       </c>
     </row>
@@ -19179,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -19224,55 +19275,55 @@
         <v>0</v>
       </c>
       <c r="N41" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>22.833333333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A42" s="91"/>
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:15" s="100" customFormat="1" outlineLevel="1">
+      <c r="A42" s="101"/>
+      <c r="B42" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91">
-        <f>SUBTOTAL(9,E38:E41)</f>
+      <c r="C42" s="101"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="101">
+        <f t="shared" ref="E42:N42" si="15">SUBTOTAL(9,E38:E41)</f>
         <v>6.86</v>
       </c>
-      <c r="F42" s="91">
-        <f>SUBTOTAL(9,F38:F41)</f>
+      <c r="F42" s="101">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="G42" s="91">
-        <f>SUBTOTAL(9,G38:G41)</f>
+      <c r="G42" s="101">
+        <f t="shared" si="15"/>
         <v>12397</v>
       </c>
-      <c r="H42" s="91">
-        <f>SUBTOTAL(9,H38:H41)</f>
+      <c r="H42" s="101">
+        <f t="shared" si="15"/>
         <v>16759</v>
       </c>
-      <c r="I42" s="91">
-        <f>SUBTOTAL(9,I38:I41)</f>
+      <c r="I42" s="101">
+        <f t="shared" si="15"/>
         <v>70380</v>
       </c>
-      <c r="J42" s="91">
-        <f>SUBTOTAL(9,J38:J41)</f>
+      <c r="J42" s="101">
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="K42" s="91">
-        <f>SUBTOTAL(9,K38:K41)</f>
+      <c r="K42" s="101">
+        <f t="shared" si="15"/>
         <v>4891</v>
       </c>
-      <c r="L42" s="91">
-        <f>SUBTOTAL(9,L38:L41)</f>
+      <c r="L42" s="101">
+        <f t="shared" si="15"/>
         <v>43710</v>
       </c>
-      <c r="M42" s="16">
-        <f>SUBTOTAL(9,M38:M41)</f>
+      <c r="M42" s="94">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N42" s="98">
-        <f>SUBTOTAL(9,N38:N41)</f>
+      <c r="N42" s="109">
+        <f t="shared" si="15"/>
         <v>114.33333333333333</v>
       </c>
     </row>
@@ -19317,55 +19368,55 @@
         <v>0</v>
       </c>
       <c r="N43" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>30.833333333333332</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A44" s="91"/>
-      <c r="B44" s="16" t="s">
+    <row r="44" spans="1:15" s="100" customFormat="1" outlineLevel="1">
+      <c r="A44" s="101"/>
+      <c r="B44" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91">
-        <f>SUBTOTAL(9,E43:E43)</f>
+      <c r="C44" s="101"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="101">
+        <f t="shared" ref="E44:N44" si="16">SUBTOTAL(9,E43:E43)</f>
         <v>1.85</v>
       </c>
-      <c r="F44" s="91">
-        <f>SUBTOTAL(9,F43:F43)</f>
-        <v>15</v>
-      </c>
-      <c r="G44" s="91">
-        <f>SUBTOTAL(9,G43:G43)</f>
+      <c r="F44" s="101">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="G44" s="101">
+        <f t="shared" si="16"/>
         <v>9230</v>
       </c>
-      <c r="H44" s="91">
-        <f>SUBTOTAL(9,H43:H43)</f>
+      <c r="H44" s="101">
+        <f t="shared" si="16"/>
         <v>8950</v>
       </c>
-      <c r="I44" s="91">
-        <f>SUBTOTAL(9,I43:I43)</f>
+      <c r="I44" s="101">
+        <f t="shared" si="16"/>
         <v>28000</v>
       </c>
-      <c r="J44" s="91">
-        <f>SUBTOTAL(9,J43:J43)</f>
+      <c r="J44" s="101">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="K44" s="91">
-        <f>SUBTOTAL(9,K43:K43)</f>
+      <c r="K44" s="101">
+        <f t="shared" si="16"/>
         <v>850</v>
       </c>
-      <c r="L44" s="91">
-        <f>SUBTOTAL(9,L43:L43)</f>
+      <c r="L44" s="101">
+        <f t="shared" si="16"/>
         <v>7340</v>
       </c>
-      <c r="M44" s="16">
-        <f>SUBTOTAL(9,M43:M43)</f>
+      <c r="M44" s="94">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N44" s="98">
-        <f>SUBTOTAL(9,N43:N43)</f>
+      <c r="N44" s="109">
+        <f t="shared" si="16"/>
         <v>30.833333333333332</v>
       </c>
     </row>
@@ -19408,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>47.333333333333336</v>
       </c>
       <c r="O45" s="60"/>
@@ -19452,7 +19503,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21.666666666666668</v>
       </c>
     </row>
@@ -19495,56 +19546,56 @@
         <v>0</v>
       </c>
       <c r="N47" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>30.166666666666668</v>
       </c>
       <c r="O47" s="48"/>
     </row>
-    <row r="48" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A48" s="91"/>
-      <c r="B48" s="16" t="s">
+    <row r="48" spans="1:15" s="100" customFormat="1" outlineLevel="1">
+      <c r="A48" s="101"/>
+      <c r="B48" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="91">
-        <f>SUBTOTAL(9,E45:E47)</f>
+      <c r="C48" s="94"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="101">
+        <f t="shared" ref="E48:N48" si="17">SUBTOTAL(9,E45:E47)</f>
         <v>5.9499999999999993</v>
       </c>
-      <c r="F48" s="91">
-        <f>SUBTOTAL(9,F45:F47)</f>
+      <c r="F48" s="101">
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
-      <c r="G48" s="91">
-        <f>SUBTOTAL(9,G45:G47)</f>
+      <c r="G48" s="101">
+        <f t="shared" si="17"/>
         <v>3060</v>
       </c>
-      <c r="H48" s="91">
-        <f>SUBTOTAL(9,H45:H47)</f>
+      <c r="H48" s="101">
+        <f t="shared" si="17"/>
         <v>27690</v>
       </c>
-      <c r="I48" s="91">
-        <f>SUBTOTAL(9,I45:I47)</f>
+      <c r="I48" s="101">
+        <f t="shared" si="17"/>
         <v>74000</v>
       </c>
-      <c r="J48" s="91">
-        <f>SUBTOTAL(9,J45:J47)</f>
+      <c r="J48" s="101">
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
-      <c r="K48" s="91">
-        <f>SUBTOTAL(9,K45:K47)</f>
+      <c r="K48" s="101">
+        <f t="shared" si="17"/>
         <v>2760</v>
       </c>
-      <c r="L48" s="91">
-        <f>SUBTOTAL(9,L45:L47)</f>
+      <c r="L48" s="101">
+        <f t="shared" si="17"/>
         <v>24220</v>
       </c>
-      <c r="M48" s="16">
-        <f>SUBTOTAL(9,M45:M47)</f>
+      <c r="M48" s="94">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N48" s="98">
-        <f>SUBTOTAL(9,N45:N47)</f>
+      <c r="N48" s="109">
+        <f t="shared" si="17"/>
         <v>99.166666666666671</v>
       </c>
     </row>
@@ -19587,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>27.666666666666668</v>
       </c>
       <c r="O49" s="48"/>
@@ -19631,7 +19682,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>35.333333333333336</v>
       </c>
       <c r="O50" s="48"/>
@@ -19675,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.5</v>
       </c>
       <c r="O51" s="48"/>
@@ -19719,103 +19770,103 @@
         <v>0</v>
       </c>
       <c r="N52" s="73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="50" customFormat="1" outlineLevel="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="16" t="s">
+    <row r="53" spans="1:15" s="100" customFormat="1" outlineLevel="1">
+      <c r="A53" s="101"/>
+      <c r="B53" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="91">
-        <f>SUBTOTAL(9,E49:E52)</f>
+      <c r="C53" s="94"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="101">
+        <f t="shared" ref="E53:N53" si="18">SUBTOTAL(9,E49:E52)</f>
         <v>6.81</v>
       </c>
-      <c r="F53" s="91">
-        <f>SUBTOTAL(9,F49:F52)</f>
+      <c r="F53" s="101">
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="G53" s="91">
-        <f>SUBTOTAL(9,G49:G52)</f>
+      <c r="G53" s="101">
+        <f t="shared" si="18"/>
         <v>4560</v>
       </c>
-      <c r="H53" s="91">
-        <f>SUBTOTAL(9,H49:H52)</f>
+      <c r="H53" s="101">
+        <f t="shared" si="18"/>
         <v>31940</v>
       </c>
-      <c r="I53" s="91">
-        <f>SUBTOTAL(9,I49:I52)</f>
+      <c r="I53" s="101">
+        <f t="shared" si="18"/>
         <v>93000</v>
       </c>
-      <c r="J53" s="91">
-        <f>SUBTOTAL(9,J49:J52)</f>
+      <c r="J53" s="101">
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="K53" s="91">
-        <f>SUBTOTAL(9,K49:K52)</f>
+      <c r="K53" s="101">
+        <f t="shared" si="18"/>
         <v>3540</v>
       </c>
-      <c r="L53" s="91">
-        <f>SUBTOTAL(9,L49:L52)</f>
+      <c r="L53" s="101">
+        <f t="shared" si="18"/>
         <v>37630</v>
       </c>
-      <c r="M53" s="16">
-        <f>SUBTOTAL(9,M49:M52)</f>
+      <c r="M53" s="94">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N53" s="98">
-        <f>SUBTOTAL(9,N49:N52)</f>
+      <c r="N53" s="109">
+        <f t="shared" si="18"/>
         <v>113.5</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="55" customFormat="1">
-      <c r="A54" s="99"/>
-      <c r="B54" s="95" t="s">
+    <row r="54" spans="1:15" s="114" customFormat="1">
+      <c r="A54" s="110"/>
+      <c r="B54" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="99">
-        <f>SUBTOTAL(9,E3:E52)</f>
+      <c r="C54" s="111"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="110">
+        <f t="shared" ref="E54:N54" si="19">SUBTOTAL(9,E3:E52)</f>
         <v>64.159999999999982</v>
       </c>
-      <c r="F54" s="99">
-        <f>SUBTOTAL(9,F3:F52)</f>
+      <c r="F54" s="110">
+        <f t="shared" si="19"/>
         <v>498</v>
       </c>
-      <c r="G54" s="99">
-        <f>SUBTOTAL(9,G3:G52)</f>
+      <c r="G54" s="110">
+        <f t="shared" si="19"/>
         <v>191919</v>
       </c>
-      <c r="H54" s="99">
-        <f>SUBTOTAL(9,H3:H52)</f>
+      <c r="H54" s="110">
+        <f t="shared" si="19"/>
         <v>258717</v>
       </c>
-      <c r="I54" s="99">
-        <f>SUBTOTAL(9,I3:I52)</f>
+      <c r="I54" s="110">
+        <f t="shared" si="19"/>
         <v>657400</v>
       </c>
-      <c r="J54" s="99">
-        <f>SUBTOTAL(9,J3:J52)</f>
+      <c r="J54" s="110">
+        <f t="shared" si="19"/>
         <v>396</v>
       </c>
-      <c r="K54" s="99">
-        <f>SUBTOTAL(9,K3:K52)</f>
+      <c r="K54" s="110">
+        <f t="shared" si="19"/>
         <v>176827</v>
       </c>
-      <c r="L54" s="99">
-        <f>SUBTOTAL(9,L3:L52)</f>
+      <c r="L54" s="110">
+        <f t="shared" si="19"/>
         <v>426502</v>
       </c>
-      <c r="M54" s="95">
-        <f>SUBTOTAL(9,M3:M52)</f>
+      <c r="M54" s="111">
+        <f t="shared" si="19"/>
         <v>14.2</v>
       </c>
-      <c r="N54" s="101">
-        <f>SUBTOTAL(9,N3:N52)</f>
+      <c r="N54" s="113">
+        <f t="shared" si="19"/>
         <v>1069.3333333333335</v>
       </c>
     </row>
